--- a/Documents/労金AML_自前テストデータ.xlsx
+++ b/Documents/労金AML_自前テストデータ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A561C63A-F65F-4A59-807F-A4ACAFB6EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C22F6BD-6D3D-41AF-8D17-6D32026C8B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="0" windowWidth="24360" windowHeight="15195" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="510" windowWidth="21000" windowHeight="14850" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPOデータ" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="（団体）審査対象" sheetId="3" r:id="rId3"/>
     <sheet name="団体・正常納品対象" sheetId="4" r:id="rId4"/>
     <sheet name="団体・不備納品対象" sheetId="5" r:id="rId5"/>
+    <sheet name="個人・WEBCAS" sheetId="6" r:id="rId6"/>
+    <sheet name="個人・納品対象" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6100" uniqueCount="2081">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -9838,6 +9840,1032 @@
   <si>
     <t>01;02</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>answer_id_un</t>
+  </si>
+  <si>
+    <t>answer_date</t>
+  </si>
+  <si>
+    <t>updt_date_un</t>
+  </si>
+  <si>
+    <t>id_un</t>
+  </si>
+  <si>
+    <t>password_un</t>
+  </si>
+  <si>
+    <t>bank_code_un</t>
+  </si>
+  <si>
+    <t>name_kanji_un</t>
+  </si>
+  <si>
+    <t>name_kana_un</t>
+  </si>
+  <si>
+    <t>zipcode_un</t>
+  </si>
+  <si>
+    <t>address_un</t>
+  </si>
+  <si>
+    <t>nation_un</t>
+  </si>
+  <si>
+    <t>visa_un</t>
+  </si>
+  <si>
+    <t>visa_limit_un</t>
+  </si>
+  <si>
+    <t>ctrl_num</t>
+  </si>
+  <si>
+    <t>ans_date_ex_un</t>
+  </si>
+  <si>
+    <t>data_id_un</t>
+  </si>
+  <si>
+    <t>reg_date_un</t>
+  </si>
+  <si>
+    <t>upd_date2_un</t>
+  </si>
+  <si>
+    <t>referer_un</t>
+  </si>
+  <si>
+    <t>ipaddr_un</t>
+  </si>
+  <si>
+    <t>browser_un</t>
+  </si>
+  <si>
+    <t>reg_path_un</t>
+  </si>
+  <si>
+    <t>form_id_un</t>
+  </si>
+  <si>
+    <t>agree_pi_un</t>
+  </si>
+  <si>
+    <t>namechg_flg</t>
+  </si>
+  <si>
+    <t>lname_kanji</t>
+  </si>
+  <si>
+    <t>fname_kanji</t>
+  </si>
+  <si>
+    <t>lname_kana</t>
+  </si>
+  <si>
+    <t>fname_kana</t>
+  </si>
+  <si>
+    <t>addrchg_flg</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>pref</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>addr_num</t>
+  </si>
+  <si>
+    <t>bldg_name</t>
+  </si>
+  <si>
+    <t>pref_kana</t>
+  </si>
+  <si>
+    <t>city_kana</t>
+  </si>
+  <si>
+    <t>addrnum_kan</t>
+  </si>
+  <si>
+    <t>bldgkana_nm</t>
+  </si>
+  <si>
+    <t>tel_regist</t>
+  </si>
+  <si>
+    <t>tel_fixed</t>
+  </si>
+  <si>
+    <t>tel_mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nationchg_flg</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>nation_asia</t>
+  </si>
+  <si>
+    <t>nation_mide</t>
+  </si>
+  <si>
+    <t>nation_weur</t>
+  </si>
+  <si>
+    <t>nation_eeur</t>
+  </si>
+  <si>
+    <t>nation_nam</t>
+  </si>
+  <si>
+    <t>nation_cari</t>
+  </si>
+  <si>
+    <t>nation_latm</t>
+  </si>
+  <si>
+    <t>nation_afrc</t>
+  </si>
+  <si>
+    <t>nation_oce</t>
+  </si>
+  <si>
+    <t>nation_othr</t>
+  </si>
+  <si>
+    <t>name_alpha</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>visa_limit</t>
+  </si>
+  <si>
+    <t>pep_flag</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>job_other</t>
+  </si>
+  <si>
+    <t>work_or_sch</t>
+  </si>
+  <si>
+    <t>worksch_kan</t>
+  </si>
+  <si>
+    <t>work_tel</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>indus_othr</t>
+  </si>
+  <si>
+    <t>sidejob_flg</t>
+  </si>
+  <si>
+    <t>sidejob_typ</t>
+  </si>
+  <si>
+    <t>sideothr_tx</t>
+  </si>
+  <si>
+    <t>tx_purpose1</t>
+  </si>
+  <si>
+    <t>tx_purpose2</t>
+  </si>
+  <si>
+    <t>tx_purpose3</t>
+  </si>
+  <si>
+    <t>tx_purpose4</t>
+  </si>
+  <si>
+    <t>tx_purpose5</t>
+  </si>
+  <si>
+    <t>tx_purpose6</t>
+  </si>
+  <si>
+    <t>tx_othr_txt</t>
+  </si>
+  <si>
+    <t>tx_type</t>
+  </si>
+  <si>
+    <t>tx_freq</t>
+  </si>
+  <si>
+    <t>tx_amt_once</t>
+  </si>
+  <si>
+    <t>tx_over2m_f</t>
+  </si>
+  <si>
+    <t>tx_over2mfrq</t>
+  </si>
+  <si>
+    <t>tx_over2mam</t>
+  </si>
+  <si>
+    <t>src_salary</t>
+  </si>
+  <si>
+    <t>src_pension</t>
+  </si>
+  <si>
+    <t>src_insur</t>
+  </si>
+  <si>
+    <t>src_exec</t>
+  </si>
+  <si>
+    <t>src_bizin</t>
+  </si>
+  <si>
+    <t>src_inheri</t>
+  </si>
+  <si>
+    <t>src_invincm</t>
+  </si>
+  <si>
+    <t>src_saving</t>
+  </si>
+  <si>
+    <t>src_otherbk</t>
+  </si>
+  <si>
+    <t>src_home</t>
+  </si>
+  <si>
+    <t>src_loan</t>
+  </si>
+  <si>
+    <t>src_other</t>
+  </si>
+  <si>
+    <t>src_oth_txt</t>
+  </si>
+  <si>
+    <t>browser2_un</t>
+  </si>
+  <si>
+    <t>ipaddr2_un</t>
+  </si>
+  <si>
+    <t>referer2_un</t>
+  </si>
+  <si>
+    <t>emailtask_un</t>
+  </si>
+  <si>
+    <t>dbresult_un</t>
+  </si>
+  <si>
+    <t>回答ID_未使用</t>
+  </si>
+  <si>
+    <t>回答日時</t>
+  </si>
+  <si>
+    <t>更新日時_未使用</t>
+  </si>
+  <si>
+    <t>ID_未使用</t>
+  </si>
+  <si>
+    <t>パスワード_未使用</t>
+  </si>
+  <si>
+    <t>金融機関コード_未使用</t>
+  </si>
+  <si>
+    <t>漢字氏名_未使用</t>
+  </si>
+  <si>
+    <t>カナ氏名_未使用</t>
+  </si>
+  <si>
+    <t>郵便番号_未使用</t>
+  </si>
+  <si>
+    <t>住所_未使用</t>
+  </si>
+  <si>
+    <t>国籍_未使用</t>
+  </si>
+  <si>
+    <t>在留資格_未使用</t>
+  </si>
+  <si>
+    <t>在留期限_未使用</t>
+  </si>
+  <si>
+    <t>管理番号</t>
+  </si>
+  <si>
+    <t>回答日時_連携_未使用</t>
+  </si>
+  <si>
+    <t>データID_未使用</t>
+  </si>
+  <si>
+    <t>登録日時_未使用</t>
+  </si>
+  <si>
+    <t>リンク元_未使用</t>
+  </si>
+  <si>
+    <t>IPアドレス_未使用</t>
+  </si>
+  <si>
+    <t>ブラウザ_未使用</t>
+  </si>
+  <si>
+    <t>登録経路_未使用</t>
+  </si>
+  <si>
+    <t>フォームID_未使用</t>
+  </si>
+  <si>
+    <t>個人情報利用規約同意_隠し項目_未使用</t>
+  </si>
+  <si>
+    <t>名前の変更の有無</t>
+  </si>
+  <si>
+    <t>氏名漢字_姓</t>
+  </si>
+  <si>
+    <t>氏名漢字_名</t>
+  </si>
+  <si>
+    <t>氏名カナ_姓</t>
+  </si>
+  <si>
+    <t>氏名カナ_名</t>
+  </si>
+  <si>
+    <t>住所変更の有無</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>都道府県</t>
+  </si>
+  <si>
+    <t>市区町村</t>
+  </si>
+  <si>
+    <t>町名番地</t>
+  </si>
+  <si>
+    <t>ビル建物名</t>
+  </si>
+  <si>
+    <t>都道府県_カタカナ</t>
+  </si>
+  <si>
+    <t>市区町村_カタカナ</t>
+  </si>
+  <si>
+    <t>町名番地_カタカナ</t>
+  </si>
+  <si>
+    <t>ビル建物名_カタカナ</t>
+  </si>
+  <si>
+    <t>登録する電話番号</t>
+  </si>
+  <si>
+    <t>固定電話番号</t>
+  </si>
+  <si>
+    <t>携帯電話番号</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>国籍変更の有無</t>
+  </si>
+  <si>
+    <t>国籍</t>
+  </si>
+  <si>
+    <t>国地域</t>
+  </si>
+  <si>
+    <t>国籍_アジア</t>
+  </si>
+  <si>
+    <t>国籍_中近東</t>
+  </si>
+  <si>
+    <t>国籍_西欧</t>
+  </si>
+  <si>
+    <t>国籍_東欧</t>
+  </si>
+  <si>
+    <t>国籍_北米</t>
+  </si>
+  <si>
+    <t>国籍_カリブ海諸国</t>
+  </si>
+  <si>
+    <t>国籍_ラテンアメリカ</t>
+  </si>
+  <si>
+    <t>国籍_アフリカ</t>
+  </si>
+  <si>
+    <t>国籍_大洋州</t>
+  </si>
+  <si>
+    <t>国籍_その他</t>
+  </si>
+  <si>
+    <t>アルファベット氏名</t>
+  </si>
+  <si>
+    <t>在留資格</t>
+  </si>
+  <si>
+    <t>在留期限</t>
+  </si>
+  <si>
+    <t>外国PEPs</t>
+  </si>
+  <si>
+    <t>ご職業</t>
+  </si>
+  <si>
+    <t>ご職業_その他職業テキスト</t>
+  </si>
+  <si>
+    <t>お勤め先名_または学校名</t>
+  </si>
+  <si>
+    <t>お勤め先名_または学校名カナ</t>
+  </si>
+  <si>
+    <t>お勤め先電話番号</t>
+  </si>
+  <si>
+    <t>業種</t>
+  </si>
+  <si>
+    <t>業種_その他テキスト</t>
+  </si>
+  <si>
+    <t>副業の有無</t>
+  </si>
+  <si>
+    <t>副業の業種</t>
+  </si>
+  <si>
+    <t>副業の業種_その他テキスト</t>
+  </si>
+  <si>
+    <t>取引目的_生活費決済</t>
+  </si>
+  <si>
+    <t>取引目的_事業費決済</t>
+  </si>
+  <si>
+    <t>取引目的_給与_年金受取</t>
+  </si>
+  <si>
+    <t>取引目的_貯蓄_資産運用</t>
+  </si>
+  <si>
+    <t>取引目的_融資</t>
+  </si>
+  <si>
+    <t>取引目的_その他</t>
+  </si>
+  <si>
+    <t>取引目的_その他テキスト</t>
+  </si>
+  <si>
+    <t>取引形態</t>
+  </si>
+  <si>
+    <t>取引頻度</t>
+  </si>
+  <si>
+    <t>1回あたりの取引金額</t>
+  </si>
+  <si>
+    <t>200万円超取引の有無</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の頻度</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の金額</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_給与_退職金</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_年金_社会保険_公的扶助</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_保険_民間</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_役員報酬</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_事業収入</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_相続_贈与</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_配当_利子_資産運用益_不動産収入</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_貯蓄</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_他の金融機関口座から引き出した現金</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_自宅保管現金</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_借入金</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_それ以外</t>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_それ以外テキスト</t>
+  </si>
+  <si>
+    <t>e-mailタスクID_未使用</t>
+  </si>
+  <si>
+    <t>DB連携結果_ろうきんお取引目的確認フォーム値戻し_未使用</t>
+  </si>
+  <si>
+    <t>項目Range</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025/06/25 18:58:07</t>
+  </si>
+  <si>
+    <t>2954</t>
+  </si>
+  <si>
+    <t>共同　太郎</t>
+  </si>
+  <si>
+    <t>キョウドウ　タロウ</t>
+  </si>
+  <si>
+    <t>112-0002</t>
+  </si>
+  <si>
+    <t>東京都文京区小石川４－１４－１２</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>2025/06/24 15:36:44</t>
+  </si>
+  <si>
+    <t>CSVインポート</t>
+  </si>
+  <si>
+    <t>-999</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML	 like Gecko) Chrome/137.0.0.0 Safari/537.36</t>
+  </si>
+  <si>
+    <t>210.143.197.187</t>
+  </si>
+  <si>
+    <t>https://www14.webcas.net/</t>
+  </si>
+  <si>
+    <t>更新成功</t>
+  </si>
+  <si>
+    <t>2025/06/25 18:59:59</t>
+  </si>
+  <si>
+    <t>2025/06/25 19:03:47</t>
+  </si>
+  <si>
+    <t>2025/06/24 15:36:45</t>
+  </si>
+  <si>
+    <t>2025/06/25 19:08:09</t>
+  </si>
+  <si>
+    <t>2025/06/25 19:13:22</t>
+  </si>
+  <si>
+    <t>620019</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML	 like Gecko) Chrome/137.0.0.0 Safari/537.36</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0000000001</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0000000002</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0000000003</t>
+  </si>
+  <si>
+    <t>0000000004</t>
+  </si>
+  <si>
+    <t>0000000005</t>
+  </si>
+  <si>
+    <t>0000000006</t>
+  </si>
+  <si>
+    <t>0000000007</t>
+  </si>
+  <si>
+    <t>0000000008</t>
+  </si>
+  <si>
+    <t>0000000009</t>
+  </si>
+  <si>
+    <t>0000000010</t>
+  </si>
+  <si>
+    <t>0000000011</t>
+  </si>
+  <si>
+    <t>0000000012</t>
+  </si>
+  <si>
+    <t>0000000013</t>
+  </si>
+  <si>
+    <t>0000000014</t>
+  </si>
+  <si>
+    <t>0000000015</t>
+  </si>
+  <si>
+    <t>0000000016</t>
+  </si>
+  <si>
+    <t>0000000017</t>
+  </si>
+  <si>
+    <t>0000000018</t>
+  </si>
+  <si>
+    <t>0000000019</t>
+  </si>
+  <si>
+    <t>0000000020</t>
+  </si>
+  <si>
+    <t>漢字性１</t>
+    <rPh sb="0" eb="3">
+      <t>カンジセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>漢字名１</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ｶﾅｾｲ1</t>
+  </si>
+  <si>
+    <t>ｶﾅｾｲ1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ｶﾅﾒｲ2</t>
+  </si>
+  <si>
+    <t>ｶﾅﾒｲ2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>3501332</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>比企郡川島町</t>
+    <rPh sb="0" eb="6">
+      <t>ヒキグンカワジママチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>八幡団地４丁目３－３</t>
+    <rPh sb="0" eb="4">
+      <t>ハチマンダンチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウメ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アパート２０２号室</t>
+    <rPh sb="7" eb="8">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ｻｲﾀﾏｹﾝ</t>
+  </si>
+  <si>
+    <t>ｻｲﾀﾏｹﾝ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ﾋｷｸﾞﾝｶﾜｼﾞﾏﾏﾁ</t>
+  </si>
+  <si>
+    <t>ﾋｷｸﾞﾝｶﾜｼﾞﾏﾏﾁ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ﾊﾁﾏﾝﾀﾞﾝﾁ4-3-3</t>
+  </si>
+  <si>
+    <t>ﾊﾁﾏﾝﾀﾞﾝﾁ4-3-3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ｱﾊﾟｰﾄ202</t>
+  </si>
+  <si>
+    <t>ｱﾊﾟｰﾄ202</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>03-0000-0000</t>
+  </si>
+  <si>
+    <t>03-0000-0000</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>090-1111-1111</t>
+  </si>
+  <si>
+    <t>090-1111-1111</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mail@addr.co.jp</t>
+  </si>
+  <si>
+    <t>mail@addr.co.jp</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>alpha name</t>
+  </si>
+  <si>
+    <t>alpha name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2029/02/22</t>
+  </si>
+  <si>
+    <t>2029/02/22</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>お勤め先名</t>
+  </si>
+  <si>
+    <t>お勤め先名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ｵﾂﾄﾒｻｷﾒｲ</t>
+  </si>
+  <si>
+    <t>ｵﾂﾄﾒｻｷﾒｲ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>03-3333-3333</t>
+  </si>
+  <si>
+    <t>03-3333-3333</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>620010</t>
+  </si>
+  <si>
+    <t>620010</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>620005</t>
+  </si>
+  <si>
+    <t>620005</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>取引目的その他</t>
+    <rPh sb="0" eb="4">
+      <t>トリヒキモクテキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>-999</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>職業その他</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>副業その他</t>
+    <rPh sb="0" eb="2">
+      <t>フクギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ｶﾅﾒｲ1</t>
+  </si>
+  <si>
+    <t>ｶﾅﾒｲ1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>漢字性２</t>
+    <rPh sb="0" eb="3">
+      <t>カンジセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>漢字名２</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ｶﾅｾｲ2</t>
+  </si>
+  <si>
+    <t>ｶﾅｾｲ2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>620019</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bpo_person_cd</t>
+  </si>
+  <si>
+    <t>117590000004025</t>
+  </si>
+  <si>
+    <t>0000004025</t>
+  </si>
+  <si>
+    <t>ｶﾅ ｼﾒｲ01</t>
+  </si>
+  <si>
+    <t>09012340040</t>
+  </si>
+  <si>
+    <t>620020</t>
+  </si>
+  <si>
+    <t>19950922</t>
+  </si>
+  <si>
+    <t>0004025</t>
+  </si>
+  <si>
+    <t>20300922</t>
+  </si>
+  <si>
+    <t>000004025</t>
+  </si>
+  <si>
+    <t>117590000004125</t>
+  </si>
+  <si>
+    <t>0000004125</t>
+  </si>
+  <si>
+    <t>ｶﾅ ｼﾒｲ02</t>
+  </si>
+  <si>
+    <t>09012340041</t>
+  </si>
+  <si>
+    <t>620021</t>
+  </si>
+  <si>
+    <t>0004125</t>
+  </si>
+  <si>
+    <t>000004125</t>
+  </si>
+  <si>
+    <t>117590000004225</t>
+  </si>
+  <si>
+    <t>0000004225</t>
+  </si>
+  <si>
+    <t>09012340042</t>
+  </si>
+  <si>
+    <t>0004225</t>
+  </si>
+  <si>
+    <t>000004225</t>
   </si>
 </sst>
 </file>
@@ -9974,7 +11002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10030,6 +11058,22 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10315,10 +11359,10 @@
   <dimension ref="B2:AL87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="X10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="X40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10:AL12"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49:AL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
@@ -28236,7 +29280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D83C36-CA63-41C2-8A4F-AC76EDDD9348}">
   <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -28476,4 +29520,6019 @@
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B902224-48DA-4A5C-801B-7819AEFFA47E}">
+  <dimension ref="B2:CY26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="BI12" sqref="BI12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="14"/>
+    <col min="2" max="2" width="7.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="14.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="12.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="9.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="16.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="18.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="7.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="16.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="20.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="30.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="39.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="28.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="27.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="28.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="46.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="24.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="49.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="30.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="27.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="34.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="91.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="22.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="18" style="14" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="46" style="14" bestFit="1" customWidth="1"/>
+    <col min="104" max="16384" width="2.625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:103">
+      <c r="B2" s="20" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20">
+        <v>8</v>
+      </c>
+      <c r="K2" s="20">
+        <v>9</v>
+      </c>
+      <c r="L2" s="20">
+        <v>10</v>
+      </c>
+      <c r="M2" s="20">
+        <v>11</v>
+      </c>
+      <c r="N2" s="20">
+        <v>12</v>
+      </c>
+      <c r="O2" s="20">
+        <v>13</v>
+      </c>
+      <c r="P2" s="21">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>15</v>
+      </c>
+      <c r="R2" s="20">
+        <v>16</v>
+      </c>
+      <c r="S2" s="20">
+        <v>17</v>
+      </c>
+      <c r="T2" s="20">
+        <v>18</v>
+      </c>
+      <c r="U2" s="20">
+        <v>19</v>
+      </c>
+      <c r="V2" s="20">
+        <v>20</v>
+      </c>
+      <c r="W2" s="20">
+        <v>21</v>
+      </c>
+      <c r="X2" s="20">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="20">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="20">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="20">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="20">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="20">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="20">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="20">
+        <v>35</v>
+      </c>
+      <c r="AL2" s="20">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="20">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="20">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="20">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="20">
+        <v>40</v>
+      </c>
+      <c r="AQ2" s="20">
+        <v>41</v>
+      </c>
+      <c r="AR2" s="20">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="20">
+        <v>43</v>
+      </c>
+      <c r="AT2" s="20">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="20">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="20">
+        <v>46</v>
+      </c>
+      <c r="AW2" s="20">
+        <v>47</v>
+      </c>
+      <c r="AX2" s="20">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="20">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="20">
+        <v>50</v>
+      </c>
+      <c r="BA2" s="20">
+        <v>51</v>
+      </c>
+      <c r="BB2" s="20">
+        <v>52</v>
+      </c>
+      <c r="BC2" s="20">
+        <v>53</v>
+      </c>
+      <c r="BD2" s="20">
+        <v>54</v>
+      </c>
+      <c r="BE2" s="20">
+        <v>55</v>
+      </c>
+      <c r="BF2" s="20">
+        <v>56</v>
+      </c>
+      <c r="BG2" s="20">
+        <v>57</v>
+      </c>
+      <c r="BH2" s="20">
+        <v>58</v>
+      </c>
+      <c r="BI2" s="20">
+        <v>59</v>
+      </c>
+      <c r="BJ2" s="20">
+        <v>60</v>
+      </c>
+      <c r="BK2" s="20">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="20">
+        <v>62</v>
+      </c>
+      <c r="BM2" s="20">
+        <v>63</v>
+      </c>
+      <c r="BN2" s="20">
+        <v>64</v>
+      </c>
+      <c r="BO2" s="20">
+        <v>65</v>
+      </c>
+      <c r="BP2" s="20">
+        <v>66</v>
+      </c>
+      <c r="BQ2" s="20">
+        <v>67</v>
+      </c>
+      <c r="BR2" s="20">
+        <v>68</v>
+      </c>
+      <c r="BS2" s="20">
+        <v>69</v>
+      </c>
+      <c r="BT2" s="20">
+        <v>70</v>
+      </c>
+      <c r="BU2" s="20">
+        <v>71</v>
+      </c>
+      <c r="BV2" s="20">
+        <v>72</v>
+      </c>
+      <c r="BW2" s="20">
+        <v>73</v>
+      </c>
+      <c r="BX2" s="20">
+        <v>74</v>
+      </c>
+      <c r="BY2" s="20">
+        <v>75</v>
+      </c>
+      <c r="BZ2" s="20">
+        <v>76</v>
+      </c>
+      <c r="CA2" s="20">
+        <v>77</v>
+      </c>
+      <c r="CB2" s="20">
+        <v>78</v>
+      </c>
+      <c r="CC2" s="20">
+        <v>79</v>
+      </c>
+      <c r="CD2" s="20">
+        <v>80</v>
+      </c>
+      <c r="CE2" s="20">
+        <v>81</v>
+      </c>
+      <c r="CF2" s="20">
+        <v>82</v>
+      </c>
+      <c r="CG2" s="20">
+        <v>83</v>
+      </c>
+      <c r="CH2" s="20">
+        <v>84</v>
+      </c>
+      <c r="CI2" s="20">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="20">
+        <v>86</v>
+      </c>
+      <c r="CK2" s="20">
+        <v>87</v>
+      </c>
+      <c r="CL2" s="20">
+        <v>88</v>
+      </c>
+      <c r="CM2" s="20">
+        <v>89</v>
+      </c>
+      <c r="CN2" s="20">
+        <v>90</v>
+      </c>
+      <c r="CO2" s="20">
+        <v>91</v>
+      </c>
+      <c r="CP2" s="20">
+        <v>92</v>
+      </c>
+      <c r="CQ2" s="20">
+        <v>93</v>
+      </c>
+      <c r="CR2" s="20">
+        <v>94</v>
+      </c>
+      <c r="CS2" s="20">
+        <v>95</v>
+      </c>
+      <c r="CT2" s="20">
+        <v>96</v>
+      </c>
+      <c r="CU2" s="20">
+        <v>97</v>
+      </c>
+      <c r="CV2" s="20">
+        <v>98</v>
+      </c>
+      <c r="CW2" s="20">
+        <v>99</v>
+      </c>
+      <c r="CX2" s="20">
+        <v>100</v>
+      </c>
+      <c r="CY2" s="20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:103">
+      <c r="B3" s="20" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>1776</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>1777</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>1778</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>1779</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>1780</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>1781</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>1782</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>1783</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>1784</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>1785</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>1786</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>1787</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>1788</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>1789</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>1791</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>1796</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>1797</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>1798</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>1799</v>
+      </c>
+      <c r="AH3" s="20" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>1801</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>1802</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>1803</v>
+      </c>
+      <c r="AL3" s="20" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AM3" s="20" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AN3" s="20" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AO3" s="20" t="s">
+        <v>1807</v>
+      </c>
+      <c r="AP3" s="20" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AQ3" s="20" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AR3" s="20" t="s">
+        <v>1810</v>
+      </c>
+      <c r="AS3" s="20" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AT3" s="20" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AU3" s="20" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AV3" s="20" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AW3" s="20" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AX3" s="20" t="s">
+        <v>1816</v>
+      </c>
+      <c r="AY3" s="20" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AZ3" s="20" t="s">
+        <v>1818</v>
+      </c>
+      <c r="BA3" s="20" t="s">
+        <v>1819</v>
+      </c>
+      <c r="BB3" s="20" t="s">
+        <v>1820</v>
+      </c>
+      <c r="BC3" s="20" t="s">
+        <v>1821</v>
+      </c>
+      <c r="BD3" s="20" t="s">
+        <v>1822</v>
+      </c>
+      <c r="BE3" s="20" t="s">
+        <v>1823</v>
+      </c>
+      <c r="BF3" s="20" t="s">
+        <v>1824</v>
+      </c>
+      <c r="BG3" s="20" t="s">
+        <v>1825</v>
+      </c>
+      <c r="BH3" s="20" t="s">
+        <v>1826</v>
+      </c>
+      <c r="BI3" s="20" t="s">
+        <v>1827</v>
+      </c>
+      <c r="BJ3" s="20" t="s">
+        <v>1828</v>
+      </c>
+      <c r="BK3" s="20" t="s">
+        <v>1829</v>
+      </c>
+      <c r="BL3" s="20" t="s">
+        <v>1830</v>
+      </c>
+      <c r="BM3" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="BN3" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="BO3" s="20" t="s">
+        <v>1833</v>
+      </c>
+      <c r="BP3" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="BQ3" s="20" t="s">
+        <v>1835</v>
+      </c>
+      <c r="BR3" s="20" t="s">
+        <v>1836</v>
+      </c>
+      <c r="BS3" s="20" t="s">
+        <v>1837</v>
+      </c>
+      <c r="BT3" s="20" t="s">
+        <v>1838</v>
+      </c>
+      <c r="BU3" s="20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="BV3" s="20" t="s">
+        <v>1840</v>
+      </c>
+      <c r="BW3" s="20" t="s">
+        <v>1841</v>
+      </c>
+      <c r="BX3" s="20" t="s">
+        <v>1842</v>
+      </c>
+      <c r="BY3" s="20" t="s">
+        <v>1843</v>
+      </c>
+      <c r="BZ3" s="20" t="s">
+        <v>1844</v>
+      </c>
+      <c r="CA3" s="20" t="s">
+        <v>1845</v>
+      </c>
+      <c r="CB3" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="CC3" s="20" t="s">
+        <v>1847</v>
+      </c>
+      <c r="CD3" s="20" t="s">
+        <v>1848</v>
+      </c>
+      <c r="CE3" s="20" t="s">
+        <v>1849</v>
+      </c>
+      <c r="CF3" s="20" t="s">
+        <v>1850</v>
+      </c>
+      <c r="CG3" s="20" t="s">
+        <v>1851</v>
+      </c>
+      <c r="CH3" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="CI3" s="20" t="s">
+        <v>1853</v>
+      </c>
+      <c r="CJ3" s="20" t="s">
+        <v>1854</v>
+      </c>
+      <c r="CK3" s="20" t="s">
+        <v>1855</v>
+      </c>
+      <c r="CL3" s="20" t="s">
+        <v>1856</v>
+      </c>
+      <c r="CM3" s="20" t="s">
+        <v>1857</v>
+      </c>
+      <c r="CN3" s="20" t="s">
+        <v>1858</v>
+      </c>
+      <c r="CO3" s="20" t="s">
+        <v>1859</v>
+      </c>
+      <c r="CP3" s="20" t="s">
+        <v>1860</v>
+      </c>
+      <c r="CQ3" s="20" t="s">
+        <v>1861</v>
+      </c>
+      <c r="CR3" s="20" t="s">
+        <v>1862</v>
+      </c>
+      <c r="CS3" s="20" t="s">
+        <v>1863</v>
+      </c>
+      <c r="CT3" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="CU3" s="20" t="s">
+        <v>1865</v>
+      </c>
+      <c r="CV3" s="20" t="s">
+        <v>1866</v>
+      </c>
+      <c r="CW3" s="20" t="s">
+        <v>1867</v>
+      </c>
+      <c r="CX3" s="20" t="s">
+        <v>1868</v>
+      </c>
+      <c r="CY3" s="20" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="4" spans="2:103">
+      <c r="B4" s="20" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>1877</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>1879</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>1880</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>1881</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>1883</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>1884</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>1885</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>1872</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>1887</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>1889</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>1891</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>1896</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AG4" s="20" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AH4" s="20" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AI4" s="20" t="s">
+        <v>1901</v>
+      </c>
+      <c r="AJ4" s="20" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AK4" s="20" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AL4" s="20" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>1905</v>
+      </c>
+      <c r="AN4" s="20" t="s">
+        <v>1906</v>
+      </c>
+      <c r="AO4" s="20" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AP4" s="20" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AQ4" s="20" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AR4" s="20" t="s">
+        <v>1910</v>
+      </c>
+      <c r="AS4" s="20" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AT4" s="20" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AU4" s="20" t="s">
+        <v>1913</v>
+      </c>
+      <c r="AV4" s="20" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AW4" s="20" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AX4" s="20" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AY4" s="20" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AZ4" s="20" t="s">
+        <v>1918</v>
+      </c>
+      <c r="BA4" s="20" t="s">
+        <v>1919</v>
+      </c>
+      <c r="BB4" s="20" t="s">
+        <v>1920</v>
+      </c>
+      <c r="BC4" s="20" t="s">
+        <v>1921</v>
+      </c>
+      <c r="BD4" s="20" t="s">
+        <v>1922</v>
+      </c>
+      <c r="BE4" s="20" t="s">
+        <v>1923</v>
+      </c>
+      <c r="BF4" s="20" t="s">
+        <v>1924</v>
+      </c>
+      <c r="BG4" s="20" t="s">
+        <v>1925</v>
+      </c>
+      <c r="BH4" s="20" t="s">
+        <v>1926</v>
+      </c>
+      <c r="BI4" s="20" t="s">
+        <v>1927</v>
+      </c>
+      <c r="BJ4" s="20" t="s">
+        <v>1928</v>
+      </c>
+      <c r="BK4" s="20" t="s">
+        <v>1929</v>
+      </c>
+      <c r="BL4" s="20" t="s">
+        <v>1930</v>
+      </c>
+      <c r="BM4" s="20" t="s">
+        <v>1931</v>
+      </c>
+      <c r="BN4" s="20" t="s">
+        <v>1932</v>
+      </c>
+      <c r="BO4" s="20" t="s">
+        <v>1933</v>
+      </c>
+      <c r="BP4" s="20" t="s">
+        <v>1934</v>
+      </c>
+      <c r="BQ4" s="20" t="s">
+        <v>1935</v>
+      </c>
+      <c r="BR4" s="20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="BS4" s="20" t="s">
+        <v>1937</v>
+      </c>
+      <c r="BT4" s="20" t="s">
+        <v>1938</v>
+      </c>
+      <c r="BU4" s="20" t="s">
+        <v>1939</v>
+      </c>
+      <c r="BV4" s="20" t="s">
+        <v>1940</v>
+      </c>
+      <c r="BW4" s="20" t="s">
+        <v>1941</v>
+      </c>
+      <c r="BX4" s="20" t="s">
+        <v>1942</v>
+      </c>
+      <c r="BY4" s="20" t="s">
+        <v>1943</v>
+      </c>
+      <c r="BZ4" s="20" t="s">
+        <v>1944</v>
+      </c>
+      <c r="CA4" s="20" t="s">
+        <v>1945</v>
+      </c>
+      <c r="CB4" s="20" t="s">
+        <v>1946</v>
+      </c>
+      <c r="CC4" s="20" t="s">
+        <v>1947</v>
+      </c>
+      <c r="CD4" s="20" t="s">
+        <v>1948</v>
+      </c>
+      <c r="CE4" s="20" t="s">
+        <v>1949</v>
+      </c>
+      <c r="CF4" s="20" t="s">
+        <v>1950</v>
+      </c>
+      <c r="CG4" s="20" t="s">
+        <v>1951</v>
+      </c>
+      <c r="CH4" s="20" t="s">
+        <v>1952</v>
+      </c>
+      <c r="CI4" s="20" t="s">
+        <v>1953</v>
+      </c>
+      <c r="CJ4" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="CK4" s="20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="CL4" s="20" t="s">
+        <v>1956</v>
+      </c>
+      <c r="CM4" s="20" t="s">
+        <v>1957</v>
+      </c>
+      <c r="CN4" s="20" t="s">
+        <v>1958</v>
+      </c>
+      <c r="CO4" s="20" t="s">
+        <v>1959</v>
+      </c>
+      <c r="CP4" s="20" t="s">
+        <v>1960</v>
+      </c>
+      <c r="CQ4" s="20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="CR4" s="20" t="s">
+        <v>1962</v>
+      </c>
+      <c r="CS4" s="20" t="s">
+        <v>1963</v>
+      </c>
+      <c r="CT4" s="20" t="s">
+        <v>1964</v>
+      </c>
+      <c r="CU4" s="20" t="s">
+        <v>1889</v>
+      </c>
+      <c r="CV4" s="20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="CW4" s="20" t="s">
+        <v>1887</v>
+      </c>
+      <c r="CX4" s="20" t="s">
+        <v>1965</v>
+      </c>
+      <c r="CY4" s="20" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="5" spans="2:103">
+      <c r="B5" s="20" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C5" s="20">
+        <v>5</v>
+      </c>
+      <c r="D5" s="20">
+        <v>5</v>
+      </c>
+      <c r="E5" s="20">
+        <v>5</v>
+      </c>
+      <c r="F5" s="20">
+        <v>5</v>
+      </c>
+      <c r="G5" s="20">
+        <v>5</v>
+      </c>
+      <c r="H5" s="20">
+        <v>5</v>
+      </c>
+      <c r="I5" s="20">
+        <v>11</v>
+      </c>
+      <c r="J5" s="20">
+        <v>11</v>
+      </c>
+      <c r="K5" s="20">
+        <v>5</v>
+      </c>
+      <c r="L5" s="20">
+        <v>11</v>
+      </c>
+      <c r="M5" s="20">
+        <v>1</v>
+      </c>
+      <c r="N5" s="20">
+        <v>11</v>
+      </c>
+      <c r="O5" s="20">
+        <v>11</v>
+      </c>
+      <c r="P5" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>5</v>
+      </c>
+      <c r="R5" s="20">
+        <v>5</v>
+      </c>
+      <c r="S5" s="20">
+        <v>5</v>
+      </c>
+      <c r="T5" s="20">
+        <v>5</v>
+      </c>
+      <c r="U5" s="20">
+        <v>11</v>
+      </c>
+      <c r="V5" s="20">
+        <v>11</v>
+      </c>
+      <c r="W5" s="20">
+        <v>11</v>
+      </c>
+      <c r="X5" s="20">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AO5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AS5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH5" s="20">
+        <v>5</v>
+      </c>
+      <c r="BI5" s="20">
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK5" s="20">
+        <v>5</v>
+      </c>
+      <c r="BL5" s="20">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="20">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="20">
+        <v>5</v>
+      </c>
+      <c r="BO5" s="20">
+        <v>5</v>
+      </c>
+      <c r="BP5" s="20">
+        <v>5</v>
+      </c>
+      <c r="BQ5" s="20">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="20">
+        <v>5</v>
+      </c>
+      <c r="BS5" s="20">
+        <v>5</v>
+      </c>
+      <c r="BT5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA5" s="20">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="CS5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT5" s="20">
+        <v>11</v>
+      </c>
+      <c r="CU5" s="20">
+        <v>5</v>
+      </c>
+      <c r="CV5" s="20">
+        <v>5</v>
+      </c>
+      <c r="CW5" s="20">
+        <v>5</v>
+      </c>
+      <c r="CX5" s="20">
+        <v>11</v>
+      </c>
+      <c r="CY5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:103">
+      <c r="B6" s="20" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
+        <v>19</v>
+      </c>
+      <c r="E6" s="20">
+        <v>19</v>
+      </c>
+      <c r="F6" s="20">
+        <v>10</v>
+      </c>
+      <c r="G6" s="20">
+        <v>10</v>
+      </c>
+      <c r="H6" s="20">
+        <v>4</v>
+      </c>
+      <c r="I6" s="20">
+        <v>60</v>
+      </c>
+      <c r="J6" s="20">
+        <v>48</v>
+      </c>
+      <c r="K6" s="20">
+        <v>8</v>
+      </c>
+      <c r="L6" s="20">
+        <v>196</v>
+      </c>
+      <c r="M6" s="20">
+        <v>27</v>
+      </c>
+      <c r="N6" s="20">
+        <v>30</v>
+      </c>
+      <c r="O6" s="20">
+        <v>20</v>
+      </c>
+      <c r="P6" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>19</v>
+      </c>
+      <c r="R6" s="20">
+        <v>50</v>
+      </c>
+      <c r="S6" s="20">
+        <v>19</v>
+      </c>
+      <c r="T6" s="20">
+        <v>19</v>
+      </c>
+      <c r="U6" s="20">
+        <v>50</v>
+      </c>
+      <c r="V6" s="20">
+        <v>50</v>
+      </c>
+      <c r="W6" s="20">
+        <v>50</v>
+      </c>
+      <c r="X6" s="20">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="20">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="20">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="20">
+        <v>8</v>
+      </c>
+      <c r="AH6" s="20">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="20">
+        <v>64</v>
+      </c>
+      <c r="AJ6" s="20">
+        <v>64</v>
+      </c>
+      <c r="AK6" s="20">
+        <v>64</v>
+      </c>
+      <c r="AL6" s="20">
+        <v>92</v>
+      </c>
+      <c r="AM6" s="20">
+        <v>92</v>
+      </c>
+      <c r="AN6" s="20">
+        <v>84</v>
+      </c>
+      <c r="AO6" s="20">
+        <v>84</v>
+      </c>
+      <c r="AP6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="20">
+        <v>13</v>
+      </c>
+      <c r="AR6" s="20">
+        <v>13</v>
+      </c>
+      <c r="AS6" s="20">
+        <v>102</v>
+      </c>
+      <c r="AT6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="20">
+        <v>2</v>
+      </c>
+      <c r="AW6" s="20">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="20">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="20">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="20">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="20">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="20">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="20">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="20">
+        <v>2</v>
+      </c>
+      <c r="BE6" s="20">
+        <v>2</v>
+      </c>
+      <c r="BF6" s="20">
+        <v>2</v>
+      </c>
+      <c r="BG6" s="20">
+        <v>100</v>
+      </c>
+      <c r="BH6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI6" s="20">
+        <v>10</v>
+      </c>
+      <c r="BJ6" s="20">
+        <v>2</v>
+      </c>
+      <c r="BK6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL6" s="20">
+        <v>20</v>
+      </c>
+      <c r="BM6" s="20">
+        <v>30</v>
+      </c>
+      <c r="BN6" s="20">
+        <v>48</v>
+      </c>
+      <c r="BO6" s="20">
+        <v>13</v>
+      </c>
+      <c r="BP6" s="20">
+        <v>6</v>
+      </c>
+      <c r="BQ6" s="20">
+        <v>10</v>
+      </c>
+      <c r="BR6" s="20">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="20">
+        <v>6</v>
+      </c>
+      <c r="BT6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="BU6" s="20">
+        <v>3</v>
+      </c>
+      <c r="BV6" s="20">
+        <v>3</v>
+      </c>
+      <c r="BW6" s="20">
+        <v>3</v>
+      </c>
+      <c r="BX6" s="20">
+        <v>3</v>
+      </c>
+      <c r="BY6" s="20">
+        <v>3</v>
+      </c>
+      <c r="BZ6" s="20">
+        <v>4</v>
+      </c>
+      <c r="CA6" s="20">
+        <v>20</v>
+      </c>
+      <c r="CB6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="20">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="20">
+        <v>2</v>
+      </c>
+      <c r="CR6" s="20">
+        <v>2</v>
+      </c>
+      <c r="CS6" s="20">
+        <v>4</v>
+      </c>
+      <c r="CT6" s="20">
+        <v>18</v>
+      </c>
+      <c r="CU6" s="20">
+        <v>150</v>
+      </c>
+      <c r="CV6" s="20">
+        <v>50</v>
+      </c>
+      <c r="CW6" s="20">
+        <v>50</v>
+      </c>
+      <c r="CX6" s="20">
+        <v>50</v>
+      </c>
+      <c r="CY6" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:103" ht="18.75">
+      <c r="C7" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="23" t="str">
+        <f>"20000"&amp;F7</f>
+        <v>200000000000001</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AS7" s="24" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="BO7" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="BP7" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="BS7" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BW7" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BX7" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BY7" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BZ7" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="CA7" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CB7" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CC7" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CD7" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CE7" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CF7" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="CG7" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="CH7" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="CR7" s="2"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="CV7" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="CW7" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="8" spans="2:103" ht="18.75">
+      <c r="C8" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="23" t="str">
+        <f t="shared" ref="P8:P26" si="0">"20000"&amp;F8</f>
+        <v>200000000000002</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AS8" s="24" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="BL8" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="BM8" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="BO8" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="BP8" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="BQ8" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="BR8" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="BS8" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="BT8" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CC8" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CD8" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="CE8" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
+      <c r="CS8" s="2"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="CV8" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="9" spans="2:103" ht="18.75">
+      <c r="C9" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000003</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AS9" s="24" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="BK9" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="BO9" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="BP9" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="CA9" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CB9" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CC9" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CD9" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CE9" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CF9" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CG9" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="CT9" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="CU9" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="CV9" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="10" spans="2:103">
+      <c r="C10" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000004</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
+      <c r="BY10" s="2"/>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+      <c r="CF10" s="2"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2"/>
+      <c r="CN10" s="2"/>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="2"/>
+      <c r="CS10" s="2"/>
+      <c r="CT10" s="2"/>
+      <c r="CU10" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="CV10" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="CW10" s="2"/>
+      <c r="CX10" s="2"/>
+      <c r="CY10" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="11" spans="2:103">
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000005</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+      <c r="BV11" s="2"/>
+      <c r="BW11" s="2"/>
+      <c r="BX11" s="2"/>
+      <c r="BY11" s="2"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="2"/>
+      <c r="CB11" s="2"/>
+      <c r="CC11" s="2"/>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+      <c r="CF11" s="2"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="2"/>
+      <c r="CL11" s="2"/>
+      <c r="CM11" s="2"/>
+      <c r="CN11" s="2"/>
+      <c r="CO11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CQ11" s="2"/>
+      <c r="CR11" s="2"/>
+      <c r="CS11" s="2"/>
+      <c r="CT11" s="2"/>
+      <c r="CU11" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="CV11" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="CW11" s="2"/>
+      <c r="CX11" s="2"/>
+      <c r="CY11" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="12" spans="2:103" ht="18.75">
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000006</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="U12" s="24"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:103">
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000007</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:103">
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000008</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:103">
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000009</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:103">
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000010</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" ht="18.75">
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000011</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="U17" s="24"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26">
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000012</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26">
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000013</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26">
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000014</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26">
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000015</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" ht="18.75">
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000016</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="U22" s="24"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26">
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000017</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000018</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000019</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26">
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>200000000000020</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="AS7" r:id="rId1" xr:uid="{38D380F8-ABE0-4007-9853-32B3102F2FB5}"/>
+    <hyperlink ref="AS8" r:id="rId2" xr:uid="{08B58ED2-4EF9-436D-B541-7DDBF0C7020C}"/>
+    <hyperlink ref="AS9" r:id="rId3" xr:uid="{C5003936-5DBB-4B19-B743-8653CCE572D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5747087F-EDA4-4D2C-ABC7-4D2855822BCE}">
+  <dimension ref="B2:DF10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="DC1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:DF10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="2"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="86" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="30.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="39.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="28.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="28.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="46.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="24.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="49.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="30.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="34.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="111" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:110" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="BY2" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="CB2" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="CC2" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="CM2" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="CN2" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="CU2" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="CV2" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="CW2" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="CX2" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="CY2" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="CZ2" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="DA2" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="3" spans="2:110" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>1803</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>1806</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>1809</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="BX3" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="CA3" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="CB3" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="CC3" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="CH3" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="CJ3" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="CK3" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="CL3" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="CM3" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="CN3" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="CO3" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="CP3" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="CQ3" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="CR3" s="4" t="s">
+        <v>1850</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>1851</v>
+      </c>
+      <c r="CT3" s="4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="CU3" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="CV3" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="CW3" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="CX3" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="CY3" s="4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="CZ3" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="DA3" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="DB3" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="DC3" s="4" t="s">
+        <v>1861</v>
+      </c>
+      <c r="DD3" s="4" t="s">
+        <v>1862</v>
+      </c>
+      <c r="DE3" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="DF3" s="4" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="4" spans="2:110" s="1" customFormat="1">
+      <c r="B4" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>1907</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>1911</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>1912</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>1914</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>1917</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>1918</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>1920</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>1921</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>1923</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>1924</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>1926</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>1927</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>1928</v>
+      </c>
+      <c r="BW4" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="BX4" s="4" t="s">
+        <v>1930</v>
+      </c>
+      <c r="BY4" s="4" t="s">
+        <v>1931</v>
+      </c>
+      <c r="BZ4" s="4" t="s">
+        <v>1932</v>
+      </c>
+      <c r="CA4" s="4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="CB4" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="CC4" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="CD4" s="4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="CF4" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="CH4" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="CI4" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="CJ4" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="CK4" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="CL4" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="CM4" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="CN4" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="CO4" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="CP4" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="CQ4" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="CR4" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="CS4" s="4" t="s">
+        <v>1951</v>
+      </c>
+      <c r="CT4" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="CU4" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="CV4" s="4" t="s">
+        <v>1954</v>
+      </c>
+      <c r="CW4" s="4" t="s">
+        <v>1955</v>
+      </c>
+      <c r="CX4" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="CY4" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="CZ4" s="4" t="s">
+        <v>1958</v>
+      </c>
+      <c r="DA4" s="4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="DB4" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="DC4" s="4" t="s">
+        <v>1961</v>
+      </c>
+      <c r="DD4" s="4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="DE4" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="DF4" s="4" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="5" spans="2:110" s="1" customFormat="1">
+      <c r="B5" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
+      <c r="CO5" s="4"/>
+      <c r="CP5" s="4"/>
+      <c r="CQ5" s="4"/>
+      <c r="CR5" s="4"/>
+      <c r="CS5" s="4"/>
+      <c r="CT5" s="4"/>
+      <c r="CU5" s="4"/>
+      <c r="CV5" s="4"/>
+      <c r="CW5" s="4"/>
+      <c r="CX5" s="4"/>
+      <c r="CY5" s="4"/>
+      <c r="CZ5" s="4"/>
+      <c r="DA5" s="4"/>
+      <c r="DB5" s="4"/>
+      <c r="DC5" s="4"/>
+      <c r="DD5" s="4"/>
+      <c r="DE5" s="4"/>
+      <c r="DF5" s="4"/>
+    </row>
+    <row r="6" spans="2:110" s="1" customFormat="1">
+      <c r="B6" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BU6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BV6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BX6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="CA6" s="4">
+        <v>5</v>
+      </c>
+      <c r="CB6" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC6" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="4">
+        <v>5</v>
+      </c>
+      <c r="CE6" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM6" s="4">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CT6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CW6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CX6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CY6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="DA6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="DB6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="DC6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="DD6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="DE6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF6" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:110" s="1" customFormat="1">
+      <c r="B7" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C7" s="4">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>48</v>
+      </c>
+      <c r="I7" s="4">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4">
+        <v>48</v>
+      </c>
+      <c r="K7" s="4">
+        <v>60</v>
+      </c>
+      <c r="L7" s="4">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4">
+        <v>196</v>
+      </c>
+      <c r="N7" s="4">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4">
+        <v>11</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>6</v>
+      </c>
+      <c r="R7" s="4">
+        <v>11</v>
+      </c>
+      <c r="S7" s="4">
+        <v>8</v>
+      </c>
+      <c r="T7" s="4">
+        <v>7</v>
+      </c>
+      <c r="U7" s="4">
+        <v>30</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4">
+        <v>3</v>
+      </c>
+      <c r="X7" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>20</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>8</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>19</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>14</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>14</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>14</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>14</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>8</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>64</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>64</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>64</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>92</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>92</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>84</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>84</v>
+      </c>
+      <c r="BC7" s="4">
+        <v>13</v>
+      </c>
+      <c r="BD7" s="4">
+        <v>13</v>
+      </c>
+      <c r="BE7" s="4">
+        <v>102</v>
+      </c>
+      <c r="BF7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BJ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BN7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BO7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BQ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BR7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="4">
+        <v>100</v>
+      </c>
+      <c r="BT7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU7" s="4">
+        <v>10</v>
+      </c>
+      <c r="BV7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BW7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX7" s="4">
+        <v>20</v>
+      </c>
+      <c r="BY7" s="4">
+        <v>30</v>
+      </c>
+      <c r="BZ7" s="4">
+        <v>48</v>
+      </c>
+      <c r="CA7" s="4">
+        <v>13</v>
+      </c>
+      <c r="CB7" s="4">
+        <v>6</v>
+      </c>
+      <c r="CC7" s="4">
+        <v>10</v>
+      </c>
+      <c r="CD7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CG7" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH7" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI7" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ7" s="4">
+        <v>3</v>
+      </c>
+      <c r="CK7" s="4">
+        <v>3</v>
+      </c>
+      <c r="CL7" s="4">
+        <v>4</v>
+      </c>
+      <c r="CM7" s="4">
+        <v>20</v>
+      </c>
+      <c r="CN7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CP7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CR7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CS7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CX7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="4">
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DD7" s="4">
+        <v>2</v>
+      </c>
+      <c r="DE7" s="4">
+        <v>4</v>
+      </c>
+      <c r="DF7" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:110">
+      <c r="C8" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS8" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="BT8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BU8" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="BV8" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="BW8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BY8" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="BZ8" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="CA8" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="CB8" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="CD8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE8" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="CG8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CH8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CI8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CJ8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="CL8" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="CM8" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CN8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CQ8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:110">
+      <c r="C9" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="BD9" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="BE9" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="BF9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="BW9" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="BX9" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="BY9" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="BZ9" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="CA9" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="CB9" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="CC9" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="CD9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE9" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="CF9" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="CH9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="CK9" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="CN9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:110">
+      <c r="C10" s="2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="BD10" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="BF10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV10" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="BW10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BY10" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="BZ10" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="CA10" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="CB10" s="2" t="s">
+        <v>1987</v>
+      </c>
+      <c r="CD10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL10" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="CM10" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CN10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE10" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="DF10" s="2" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/労金AML_自前テストデータ.xlsx
+++ b/Documents/労金AML_自前テストデータ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C22F6BD-6D3D-41AF-8D17-6D32026C8B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB081A-DBBC-4B01-A5DE-8691B6A20514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="510" windowWidth="21000" windowHeight="14850" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="1020" windowWidth="16860" windowHeight="14130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPOデータ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6100" uniqueCount="2081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6105" uniqueCount="2085">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -10866,6 +10866,25 @@
   </si>
   <si>
     <t>000004225</t>
+  </si>
+  <si>
+    <t>hq_ctry_nat</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>本店所在国変更有無</t>
+    <rPh sb="0" eb="9">
+      <t>ホンテンショザイコクヘンコウウム</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -11002,7 +11021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11053,27 +11072,24 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12236,7 +12252,7 @@
       </c>
     </row>
     <row r="10" spans="2:38" s="8" customFormat="1">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>1309</v>
       </c>
       <c r="C10" s="11" t="str">
@@ -12355,7 +12371,7 @@
       </c>
     </row>
     <row r="11" spans="2:38" s="8" customFormat="1">
-      <c r="B11" s="18"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11" t="str">
         <f t="shared" ref="C11:C74" si="0">"11759"&amp;D11&amp;"25"</f>
         <v>117590000000225</v>
@@ -12472,7 +12488,7 @@
       </c>
     </row>
     <row r="12" spans="2:38" s="8" customFormat="1">
-      <c r="B12" s="18"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000000325</v>
@@ -12589,7 +12605,7 @@
       </c>
     </row>
     <row r="13" spans="2:38" s="8" customFormat="1">
-      <c r="B13" s="18"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000000425</v>
@@ -12706,7 +12722,7 @@
       </c>
     </row>
     <row r="14" spans="2:38" s="8" customFormat="1">
-      <c r="B14" s="18"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000000525</v>
@@ -12823,7 +12839,7 @@
       </c>
     </row>
     <row r="15" spans="2:38" s="8" customFormat="1">
-      <c r="B15" s="18"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000000625</v>
@@ -12940,7 +12956,7 @@
       </c>
     </row>
     <row r="16" spans="2:38" s="8" customFormat="1">
-      <c r="B16" s="18"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000000725</v>
@@ -13057,7 +13073,7 @@
       </c>
     </row>
     <row r="17" spans="2:38" s="8" customFormat="1">
-      <c r="B17" s="18"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000000825</v>
@@ -13174,7 +13190,7 @@
       </c>
     </row>
     <row r="18" spans="2:38" s="8" customFormat="1">
-      <c r="B18" s="18"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000000925</v>
@@ -13291,7 +13307,7 @@
       </c>
     </row>
     <row r="19" spans="2:38" s="8" customFormat="1">
-      <c r="B19" s="18"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001025</v>
@@ -13408,7 +13424,7 @@
       </c>
     </row>
     <row r="20" spans="2:38" s="8" customFormat="1">
-      <c r="B20" s="18"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001125</v>
@@ -13525,7 +13541,7 @@
       </c>
     </row>
     <row r="21" spans="2:38" s="8" customFormat="1">
-      <c r="B21" s="18"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001225</v>
@@ -13642,7 +13658,7 @@
       </c>
     </row>
     <row r="22" spans="2:38" s="8" customFormat="1">
-      <c r="B22" s="18"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001325</v>
@@ -13759,7 +13775,7 @@
       </c>
     </row>
     <row r="23" spans="2:38" s="8" customFormat="1">
-      <c r="B23" s="18"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001425</v>
@@ -13876,7 +13892,7 @@
       </c>
     </row>
     <row r="24" spans="2:38" s="8" customFormat="1">
-      <c r="B24" s="18"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001525</v>
@@ -13993,7 +14009,7 @@
       </c>
     </row>
     <row r="25" spans="2:38" s="8" customFormat="1">
-      <c r="B25" s="18"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001625</v>
@@ -14110,7 +14126,7 @@
       </c>
     </row>
     <row r="26" spans="2:38" s="8" customFormat="1">
-      <c r="B26" s="18"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001725</v>
@@ -14227,7 +14243,7 @@
       </c>
     </row>
     <row r="27" spans="2:38" s="8" customFormat="1">
-      <c r="B27" s="18"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001825</v>
@@ -14344,7 +14360,7 @@
       </c>
     </row>
     <row r="28" spans="2:38" s="8" customFormat="1">
-      <c r="B28" s="18"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000001925</v>
@@ -14461,7 +14477,7 @@
       </c>
     </row>
     <row r="29" spans="2:38" s="8" customFormat="1">
-      <c r="B29" s="18"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002025</v>
@@ -14578,7 +14594,7 @@
       </c>
     </row>
     <row r="30" spans="2:38" s="8" customFormat="1">
-      <c r="B30" s="18"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002125</v>
@@ -14695,7 +14711,7 @@
       </c>
     </row>
     <row r="31" spans="2:38" s="8" customFormat="1">
-      <c r="B31" s="18"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002225</v>
@@ -14812,7 +14828,7 @@
       </c>
     </row>
     <row r="32" spans="2:38" s="8" customFormat="1">
-      <c r="B32" s="18"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002325</v>
@@ -14929,7 +14945,7 @@
       </c>
     </row>
     <row r="33" spans="2:38" s="8" customFormat="1">
-      <c r="B33" s="18"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002425</v>
@@ -15046,7 +15062,7 @@
       </c>
     </row>
     <row r="34" spans="2:38" s="8" customFormat="1">
-      <c r="B34" s="18"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002525</v>
@@ -15163,7 +15179,7 @@
       </c>
     </row>
     <row r="35" spans="2:38" s="8" customFormat="1">
-      <c r="B35" s="18"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002625</v>
@@ -15280,7 +15296,7 @@
       </c>
     </row>
     <row r="36" spans="2:38" s="8" customFormat="1">
-      <c r="B36" s="18"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002725</v>
@@ -15397,7 +15413,7 @@
       </c>
     </row>
     <row r="37" spans="2:38" s="8" customFormat="1">
-      <c r="B37" s="18"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002825</v>
@@ -15514,7 +15530,7 @@
       </c>
     </row>
     <row r="38" spans="2:38" s="8" customFormat="1">
-      <c r="B38" s="18"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000002925</v>
@@ -15631,7 +15647,7 @@
       </c>
     </row>
     <row r="39" spans="2:38" s="8" customFormat="1">
-      <c r="B39" s="18"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003025</v>
@@ -15748,7 +15764,7 @@
       </c>
     </row>
     <row r="40" spans="2:38" s="8" customFormat="1">
-      <c r="B40" s="18"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003125</v>
@@ -15865,7 +15881,7 @@
       </c>
     </row>
     <row r="41" spans="2:38" s="8" customFormat="1">
-      <c r="B41" s="18"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003225</v>
@@ -15982,7 +15998,7 @@
       </c>
     </row>
     <row r="42" spans="2:38" s="8" customFormat="1">
-      <c r="B42" s="18"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003325</v>
@@ -16099,7 +16115,7 @@
       </c>
     </row>
     <row r="43" spans="2:38" s="8" customFormat="1">
-      <c r="B43" s="18"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003425</v>
@@ -16216,7 +16232,7 @@
       </c>
     </row>
     <row r="44" spans="2:38" s="8" customFormat="1">
-      <c r="B44" s="18"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003525</v>
@@ -16333,7 +16349,7 @@
       </c>
     </row>
     <row r="45" spans="2:38" s="8" customFormat="1">
-      <c r="B45" s="18"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003625</v>
@@ -16450,7 +16466,7 @@
       </c>
     </row>
     <row r="46" spans="2:38" s="8" customFormat="1">
-      <c r="B46" s="18"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003725</v>
@@ -16567,7 +16583,7 @@
       </c>
     </row>
     <row r="47" spans="2:38" s="8" customFormat="1">
-      <c r="B47" s="18"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003825</v>
@@ -16684,7 +16700,7 @@
       </c>
     </row>
     <row r="48" spans="2:38" s="8" customFormat="1">
-      <c r="B48" s="18"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>117590000003925</v>
@@ -16801,7 +16817,7 @@
       </c>
     </row>
     <row r="49" spans="2:38" s="9" customFormat="1">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="24" t="s">
         <v>1310</v>
       </c>
       <c r="C49" s="13" t="str">
@@ -16920,7 +16936,7 @@
       </c>
     </row>
     <row r="50" spans="2:38" s="9" customFormat="1">
-      <c r="B50" s="19"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000004125</v>
@@ -17037,7 +17053,7 @@
       </c>
     </row>
     <row r="51" spans="2:38" s="9" customFormat="1">
-      <c r="B51" s="19"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000004225</v>
@@ -17154,7 +17170,7 @@
       </c>
     </row>
     <row r="52" spans="2:38" s="9" customFormat="1">
-      <c r="B52" s="19"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000004325</v>
@@ -17271,7 +17287,7 @@
       </c>
     </row>
     <row r="53" spans="2:38" s="9" customFormat="1">
-      <c r="B53" s="19"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000004425</v>
@@ -17388,7 +17404,7 @@
       </c>
     </row>
     <row r="54" spans="2:38" s="9" customFormat="1">
-      <c r="B54" s="19"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000004525</v>
@@ -17505,7 +17521,7 @@
       </c>
     </row>
     <row r="55" spans="2:38" s="9" customFormat="1">
-      <c r="B55" s="19"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000004625</v>
@@ -17622,7 +17638,7 @@
       </c>
     </row>
     <row r="56" spans="2:38" s="9" customFormat="1">
-      <c r="B56" s="19"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000004725</v>
@@ -17739,7 +17755,7 @@
       </c>
     </row>
     <row r="57" spans="2:38" s="9" customFormat="1">
-      <c r="B57" s="19"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000004825</v>
@@ -17856,7 +17872,7 @@
       </c>
     </row>
     <row r="58" spans="2:38" s="9" customFormat="1">
-      <c r="B58" s="19"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000004925</v>
@@ -17973,7 +17989,7 @@
       </c>
     </row>
     <row r="59" spans="2:38" s="9" customFormat="1">
-      <c r="B59" s="19"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005025</v>
@@ -18090,7 +18106,7 @@
       </c>
     </row>
     <row r="60" spans="2:38" s="9" customFormat="1">
-      <c r="B60" s="19"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005125</v>
@@ -18207,7 +18223,7 @@
       </c>
     </row>
     <row r="61" spans="2:38" s="9" customFormat="1">
-      <c r="B61" s="19"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005225</v>
@@ -18324,7 +18340,7 @@
       </c>
     </row>
     <row r="62" spans="2:38" s="9" customFormat="1">
-      <c r="B62" s="19"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005325</v>
@@ -18441,7 +18457,7 @@
       </c>
     </row>
     <row r="63" spans="2:38" s="9" customFormat="1">
-      <c r="B63" s="19"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005425</v>
@@ -18558,7 +18574,7 @@
       </c>
     </row>
     <row r="64" spans="2:38" s="9" customFormat="1">
-      <c r="B64" s="19"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005525</v>
@@ -18675,7 +18691,7 @@
       </c>
     </row>
     <row r="65" spans="2:38" s="9" customFormat="1">
-      <c r="B65" s="19"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005625</v>
@@ -18792,7 +18808,7 @@
       </c>
     </row>
     <row r="66" spans="2:38" s="9" customFormat="1">
-      <c r="B66" s="19"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005725</v>
@@ -18909,7 +18925,7 @@
       </c>
     </row>
     <row r="67" spans="2:38" s="9" customFormat="1">
-      <c r="B67" s="19"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005825</v>
@@ -19026,7 +19042,7 @@
       </c>
     </row>
     <row r="68" spans="2:38" s="9" customFormat="1">
-      <c r="B68" s="19"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000005925</v>
@@ -19143,7 +19159,7 @@
       </c>
     </row>
     <row r="69" spans="2:38" s="9" customFormat="1">
-      <c r="B69" s="19"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000006025</v>
@@ -19260,7 +19276,7 @@
       </c>
     </row>
     <row r="70" spans="2:38" s="9" customFormat="1">
-      <c r="B70" s="19"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000006125</v>
@@ -19377,7 +19393,7 @@
       </c>
     </row>
     <row r="71" spans="2:38" s="9" customFormat="1">
-      <c r="B71" s="19"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000006225</v>
@@ -19494,7 +19510,7 @@
       </c>
     </row>
     <row r="72" spans="2:38" s="9" customFormat="1">
-      <c r="B72" s="19"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000006325</v>
@@ -19611,7 +19627,7 @@
       </c>
     </row>
     <row r="73" spans="2:38" s="9" customFormat="1">
-      <c r="B73" s="19"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000006425</v>
@@ -19728,7 +19744,7 @@
       </c>
     </row>
     <row r="74" spans="2:38" s="9" customFormat="1">
-      <c r="B74" s="19"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="13" t="str">
         <f t="shared" si="0"/>
         <v>117590000006525</v>
@@ -19845,7 +19861,7 @@
       </c>
     </row>
     <row r="75" spans="2:38" s="9" customFormat="1">
-      <c r="B75" s="19"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="13" t="str">
         <f t="shared" ref="C75:C87" si="6">"11759"&amp;D75&amp;"25"</f>
         <v>117590000006625</v>
@@ -19962,7 +19978,7 @@
       </c>
     </row>
     <row r="76" spans="2:38" s="9" customFormat="1">
-      <c r="B76" s="19"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000006725</v>
@@ -20079,7 +20095,7 @@
       </c>
     </row>
     <row r="77" spans="2:38" s="9" customFormat="1">
-      <c r="B77" s="19"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000006825</v>
@@ -20196,7 +20212,7 @@
       </c>
     </row>
     <row r="78" spans="2:38" s="9" customFormat="1">
-      <c r="B78" s="19"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000006925</v>
@@ -20313,7 +20329,7 @@
       </c>
     </row>
     <row r="79" spans="2:38" s="9" customFormat="1">
-      <c r="B79" s="19"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000007025</v>
@@ -20430,7 +20446,7 @@
       </c>
     </row>
     <row r="80" spans="2:38" s="9" customFormat="1">
-      <c r="B80" s="19"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000007125</v>
@@ -20547,7 +20563,7 @@
       </c>
     </row>
     <row r="81" spans="2:38" s="9" customFormat="1">
-      <c r="B81" s="19"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000007225</v>
@@ -20664,7 +20680,7 @@
       </c>
     </row>
     <row r="82" spans="2:38" s="9" customFormat="1">
-      <c r="B82" s="19"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000007325</v>
@@ -20781,7 +20797,7 @@
       </c>
     </row>
     <row r="83" spans="2:38" s="9" customFormat="1">
-      <c r="B83" s="19"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000007425</v>
@@ -20898,7 +20914,7 @@
       </c>
     </row>
     <row r="84" spans="2:38" s="9" customFormat="1">
-      <c r="B84" s="19"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000007525</v>
@@ -21015,7 +21031,7 @@
       </c>
     </row>
     <row r="85" spans="2:38" s="9" customFormat="1">
-      <c r="B85" s="19"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000007625</v>
@@ -21132,7 +21148,7 @@
       </c>
     </row>
     <row r="86" spans="2:38" s="9" customFormat="1">
-      <c r="B86" s="19"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000007725</v>
@@ -21249,7 +21265,7 @@
       </c>
     </row>
     <row r="87" spans="2:38" s="9" customFormat="1">
-      <c r="B87" s="19"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="13" t="str">
         <f t="shared" si="6"/>
         <v>117590000007825</v>
@@ -23664,13 +23680,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE22B90-2D4F-4060-A380-9AF3561D33CE}">
-  <dimension ref="B2:DH11"/>
+  <dimension ref="B2:DI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="CX8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="AZ8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9:DH11"/>
+      <selection pane="bottomRight" activeCell="BB11" sqref="BB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -23689,60 +23705,62 @@
     <col min="18" max="20" width="12.25" style="14" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.875" style="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="34" width="13.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="9" style="14"/>
-    <col min="40" max="41" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="21.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="21.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="55" width="13.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="10.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="18.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="19.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="24.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="26.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="21.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="21.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="28" style="14" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="24.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="78" width="19.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="24.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="26.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="21.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="28" style="14" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="24.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="90" max="92" width="19.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="24.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="26.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="21.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="21.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="28" style="14" bestFit="1" customWidth="1"/>
-    <col min="102" max="103" width="24.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="104" max="105" width="17.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="106" max="107" width="13.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="17.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="22.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="110" max="112" width="17.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="113" max="16384" width="9" style="14"/>
+    <col min="23" max="23" width="24.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.25" style="14" customWidth="1"/>
+    <col min="25" max="25" width="12.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="35" width="13.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="9" style="14"/>
+    <col min="41" max="42" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="21.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="21.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="13.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="27" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="18.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="19.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="24.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="26.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="28" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="24.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="79" width="19.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="24.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="26.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="21.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="21.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="28" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="24.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="19.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="24.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="26.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="21.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="28" style="14" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="24.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="17.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="13.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="17.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="22.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="111" max="113" width="17.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="114" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:112">
+    <row r="2" spans="2:113">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -24076,8 +24094,11 @@
       <c r="DH2" s="14" t="s">
         <v>1682</v>
       </c>
+      <c r="DI2" s="14" t="s">
+        <v>1689</v>
+      </c>
     </row>
-    <row r="3" spans="2:112">
+    <row r="3" spans="2:113">
       <c r="B3" s="14" t="s">
         <v>37</v>
       </c>
@@ -24148,271 +24169,274 @@
         <v>1394</v>
       </c>
       <c r="Y3" s="14" t="s">
+        <v>2081</v>
+      </c>
+      <c r="Z3" s="14" t="s">
         <v>1395</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>1396</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AB3" s="14" t="s">
         <v>1397</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AC3" s="14" t="s">
         <v>1398</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>1399</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>1400</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>1401</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AG3" s="14" t="s">
         <v>1402</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AH3" s="14" t="s">
         <v>1403</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AI3" s="14" t="s">
         <v>1404</v>
       </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>1405</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AK3" s="14" t="s">
         <v>1406</v>
       </c>
-      <c r="AK3" s="14" t="s">
+      <c r="AL3" s="14" t="s">
         <v>1407</v>
       </c>
-      <c r="AL3" s="14" t="s">
+      <c r="AM3" s="14" t="s">
         <v>1408</v>
       </c>
-      <c r="AM3" s="14" t="s">
+      <c r="AN3" s="14" t="s">
         <v>1409</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AO3" s="14" t="s">
         <v>1410</v>
       </c>
-      <c r="AO3" s="14" t="s">
+      <c r="AP3" s="14" t="s">
         <v>1411</v>
       </c>
-      <c r="AP3" s="14" t="s">
+      <c r="AQ3" s="14" t="s">
         <v>1412</v>
       </c>
-      <c r="AQ3" s="14" t="s">
+      <c r="AR3" s="14" t="s">
         <v>1413</v>
       </c>
-      <c r="AR3" s="14" t="s">
+      <c r="AS3" s="14" t="s">
         <v>1414</v>
       </c>
-      <c r="AS3" s="14" t="s">
+      <c r="AT3" s="14" t="s">
         <v>1415</v>
       </c>
-      <c r="AT3" s="14" t="s">
+      <c r="AU3" s="14" t="s">
         <v>1416</v>
       </c>
-      <c r="AU3" s="14" t="s">
+      <c r="AV3" s="14" t="s">
         <v>1417</v>
       </c>
-      <c r="AV3" s="14" t="s">
+      <c r="AW3" s="14" t="s">
         <v>1418</v>
       </c>
-      <c r="AW3" s="14" t="s">
+      <c r="AX3" s="14" t="s">
         <v>1419</v>
       </c>
-      <c r="AX3" s="14" t="s">
+      <c r="AY3" s="14" t="s">
         <v>1420</v>
       </c>
-      <c r="AY3" s="14" t="s">
+      <c r="AZ3" s="14" t="s">
         <v>1421</v>
       </c>
-      <c r="AZ3" s="14" t="s">
+      <c r="BA3" s="14" t="s">
         <v>1422</v>
       </c>
-      <c r="BA3" s="14" t="s">
+      <c r="BB3" s="14" t="s">
         <v>1423</v>
       </c>
-      <c r="BB3" s="14" t="s">
+      <c r="BC3" s="14" t="s">
         <v>1424</v>
       </c>
-      <c r="BC3" s="14" t="s">
+      <c r="BD3" s="14" t="s">
         <v>1425</v>
       </c>
-      <c r="BD3" s="14" t="s">
+      <c r="BE3" s="14" t="s">
         <v>1426</v>
       </c>
-      <c r="BE3" s="14" t="s">
+      <c r="BF3" s="14" t="s">
         <v>1427</v>
       </c>
-      <c r="BF3" s="14" t="s">
+      <c r="BG3" s="14" t="s">
         <v>1428</v>
       </c>
-      <c r="BG3" s="14" t="s">
+      <c r="BH3" s="14" t="s">
         <v>1429</v>
       </c>
-      <c r="BH3" s="14" t="s">
+      <c r="BI3" s="14" t="s">
         <v>1430</v>
       </c>
-      <c r="BI3" s="14" t="s">
+      <c r="BJ3" s="14" t="s">
         <v>1431</v>
       </c>
-      <c r="BJ3" s="14" t="s">
+      <c r="BK3" s="14" t="s">
         <v>1432</v>
       </c>
-      <c r="BK3" s="14" t="s">
+      <c r="BL3" s="14" t="s">
         <v>1433</v>
       </c>
-      <c r="BL3" s="14" t="s">
+      <c r="BM3" s="14" t="s">
         <v>1434</v>
       </c>
-      <c r="BM3" s="14" t="s">
+      <c r="BN3" s="14" t="s">
         <v>1435</v>
       </c>
-      <c r="BN3" s="14" t="s">
+      <c r="BO3" s="14" t="s">
         <v>1436</v>
       </c>
-      <c r="BO3" s="14" t="s">
+      <c r="BP3" s="14" t="s">
         <v>1437</v>
       </c>
-      <c r="BP3" s="14" t="s">
+      <c r="BQ3" s="14" t="s">
         <v>1438</v>
       </c>
-      <c r="BQ3" s="14" t="s">
+      <c r="BR3" s="14" t="s">
         <v>1439</v>
       </c>
-      <c r="BR3" s="14" t="s">
+      <c r="BS3" s="14" t="s">
         <v>1440</v>
       </c>
-      <c r="BS3" s="14" t="s">
+      <c r="BT3" s="14" t="s">
         <v>1441</v>
       </c>
-      <c r="BT3" s="14" t="s">
+      <c r="BU3" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="BU3" s="14" t="s">
+      <c r="BV3" s="14" t="s">
         <v>1443</v>
       </c>
-      <c r="BV3" s="14" t="s">
+      <c r="BW3" s="14" t="s">
         <v>1444</v>
       </c>
-      <c r="BW3" s="14" t="s">
+      <c r="BX3" s="14" t="s">
         <v>1445</v>
       </c>
-      <c r="BX3" s="14" t="s">
+      <c r="BY3" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="BY3" s="14" t="s">
+      <c r="BZ3" s="14" t="s">
         <v>1447</v>
       </c>
-      <c r="BZ3" s="14" t="s">
+      <c r="CA3" s="14" t="s">
         <v>1448</v>
       </c>
-      <c r="CA3" s="14" t="s">
+      <c r="CB3" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="CB3" s="14" t="s">
+      <c r="CC3" s="14" t="s">
         <v>1450</v>
       </c>
-      <c r="CC3" s="14" t="s">
+      <c r="CD3" s="14" t="s">
         <v>1451</v>
       </c>
-      <c r="CD3" s="14" t="s">
+      <c r="CE3" s="14" t="s">
         <v>1452</v>
       </c>
-      <c r="CE3" s="14" t="s">
+      <c r="CF3" s="14" t="s">
         <v>1453</v>
       </c>
-      <c r="CF3" s="14" t="s">
+      <c r="CG3" s="14" t="s">
         <v>1454</v>
       </c>
-      <c r="CG3" s="14" t="s">
+      <c r="CH3" s="14" t="s">
         <v>1455</v>
       </c>
-      <c r="CH3" s="14" t="s">
+      <c r="CI3" s="14" t="s">
         <v>1456</v>
       </c>
-      <c r="CI3" s="14" t="s">
+      <c r="CJ3" s="14" t="s">
         <v>1457</v>
       </c>
-      <c r="CJ3" s="14" t="s">
+      <c r="CK3" s="14" t="s">
         <v>1458</v>
       </c>
-      <c r="CK3" s="14" t="s">
+      <c r="CL3" s="14" t="s">
         <v>1459</v>
       </c>
-      <c r="CL3" s="14" t="s">
+      <c r="CM3" s="14" t="s">
         <v>1460</v>
       </c>
-      <c r="CM3" s="14" t="s">
+      <c r="CN3" s="14" t="s">
         <v>1461</v>
       </c>
-      <c r="CN3" s="14" t="s">
+      <c r="CO3" s="14" t="s">
         <v>1462</v>
       </c>
-      <c r="CO3" s="14" t="s">
+      <c r="CP3" s="14" t="s">
         <v>1463</v>
       </c>
-      <c r="CP3" s="14" t="s">
+      <c r="CQ3" s="14" t="s">
         <v>1464</v>
       </c>
-      <c r="CQ3" s="14" t="s">
+      <c r="CR3" s="14" t="s">
         <v>1465</v>
       </c>
-      <c r="CR3" s="14" t="s">
+      <c r="CS3" s="14" t="s">
         <v>1466</v>
       </c>
-      <c r="CS3" s="14" t="s">
+      <c r="CT3" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="CT3" s="14" t="s">
+      <c r="CU3" s="14" t="s">
         <v>1468</v>
       </c>
-      <c r="CU3" s="14" t="s">
+      <c r="CV3" s="14" t="s">
         <v>1469</v>
       </c>
-      <c r="CV3" s="14" t="s">
+      <c r="CW3" s="14" t="s">
         <v>1470</v>
       </c>
-      <c r="CW3" s="14" t="s">
+      <c r="CX3" s="14" t="s">
         <v>1471</v>
       </c>
-      <c r="CX3" s="14" t="s">
+      <c r="CY3" s="14" t="s">
         <v>1472</v>
       </c>
-      <c r="CY3" s="14" t="s">
+      <c r="CZ3" s="14" t="s">
         <v>1473</v>
       </c>
-      <c r="CZ3" s="14" t="s">
+      <c r="DA3" s="14" t="s">
         <v>1474</v>
       </c>
-      <c r="DA3" s="14" t="s">
+      <c r="DB3" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="DB3" s="14" t="s">
+      <c r="DC3" s="14" t="s">
         <v>1476</v>
       </c>
-      <c r="DC3" s="14" t="s">
+      <c r="DD3" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="DD3" s="14" t="s">
+      <c r="DE3" s="14" t="s">
         <v>1478</v>
       </c>
-      <c r="DE3" s="14" t="s">
+      <c r="DF3" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="DF3" s="14" t="s">
+      <c r="DG3" s="14" t="s">
         <v>1480</v>
       </c>
-      <c r="DG3" s="14" t="s">
+      <c r="DH3" s="14" t="s">
         <v>1481</v>
       </c>
-      <c r="DH3" s="14" t="s">
+      <c r="DI3" s="14" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="4" spans="2:112">
+    <row r="4" spans="2:113">
       <c r="B4" s="14" t="s">
         <v>74</v>
       </c>
@@ -24480,279 +24504,282 @@
         <v>1501</v>
       </c>
       <c r="X4" s="14" t="s">
+        <v>2082</v>
+      </c>
+      <c r="Y4" s="14" t="s">
         <v>1502</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Z4" s="14" t="s">
         <v>1503</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AA4" s="14" t="s">
         <v>1504</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>1505</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AC4" s="14" t="s">
         <v>1506</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>1507</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AE4" s="14" t="s">
         <v>1508</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AF4" s="14" t="s">
         <v>1509</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="AG4" s="14" t="s">
         <v>1510</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AH4" s="14" t="s">
         <v>1511</v>
       </c>
-      <c r="AH4" s="14" t="s">
+      <c r="AI4" s="14" t="s">
         <v>1512</v>
       </c>
-      <c r="AI4" s="14" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>1513</v>
       </c>
-      <c r="AJ4" s="14" t="s">
+      <c r="AK4" s="14" t="s">
         <v>1514</v>
       </c>
-      <c r="AK4" s="14" t="s">
+      <c r="AL4" s="14" t="s">
         <v>1515</v>
       </c>
-      <c r="AL4" s="14" t="s">
+      <c r="AM4" s="14" t="s">
         <v>1516</v>
       </c>
-      <c r="AM4" s="14" t="s">
+      <c r="AN4" s="14" t="s">
         <v>1517</v>
       </c>
-      <c r="AN4" s="14" t="s">
+      <c r="AO4" s="14" t="s">
         <v>1518</v>
       </c>
-      <c r="AO4" s="14" t="s">
+      <c r="AP4" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="AP4" s="14" t="s">
+      <c r="AQ4" s="14" t="s">
         <v>1520</v>
       </c>
-      <c r="AQ4" s="14" t="s">
+      <c r="AR4" s="14" t="s">
         <v>1521</v>
       </c>
-      <c r="AR4" s="14" t="s">
+      <c r="AS4" s="14" t="s">
         <v>1522</v>
       </c>
-      <c r="AS4" s="14" t="s">
+      <c r="AT4" s="14" t="s">
         <v>1523</v>
       </c>
-      <c r="AT4" s="14" t="s">
+      <c r="AU4" s="14" t="s">
         <v>1524</v>
       </c>
-      <c r="AU4" s="14" t="s">
+      <c r="AV4" s="14" t="s">
         <v>1525</v>
       </c>
-      <c r="AV4" s="14" t="s">
+      <c r="AW4" s="14" t="s">
         <v>1526</v>
       </c>
-      <c r="AW4" s="14" t="s">
+      <c r="AX4" s="14" t="s">
         <v>1527</v>
       </c>
-      <c r="AX4" s="14" t="s">
+      <c r="AY4" s="14" t="s">
         <v>1528</v>
       </c>
-      <c r="AY4" s="14" t="s">
+      <c r="AZ4" s="14" t="s">
         <v>1529</v>
       </c>
-      <c r="AZ4" s="14" t="s">
+      <c r="BA4" s="14" t="s">
         <v>1530</v>
       </c>
-      <c r="BA4" s="14" t="s">
+      <c r="BB4" s="14" t="s">
         <v>1531</v>
       </c>
-      <c r="BB4" s="14" t="s">
+      <c r="BC4" s="14" t="s">
         <v>1532</v>
       </c>
-      <c r="BC4" s="14" t="s">
+      <c r="BD4" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="BD4" s="14" t="s">
+      <c r="BE4" s="14" t="s">
         <v>1534</v>
       </c>
-      <c r="BE4" s="14" t="s">
+      <c r="BF4" s="14" t="s">
         <v>1535</v>
       </c>
-      <c r="BF4" s="14" t="s">
+      <c r="BG4" s="14" t="s">
         <v>1536</v>
       </c>
-      <c r="BG4" s="14" t="s">
+      <c r="BH4" s="14" t="s">
         <v>1537</v>
       </c>
-      <c r="BH4" s="14" t="s">
+      <c r="BI4" s="14" t="s">
         <v>1538</v>
       </c>
-      <c r="BI4" s="14" t="s">
+      <c r="BJ4" s="14" t="s">
         <v>1539</v>
       </c>
-      <c r="BJ4" s="14" t="s">
+      <c r="BK4" s="14" t="s">
         <v>1540</v>
       </c>
-      <c r="BK4" s="14" t="s">
+      <c r="BL4" s="14" t="s">
         <v>1541</v>
       </c>
-      <c r="BL4" s="14" t="s">
+      <c r="BM4" s="14" t="s">
         <v>1542</v>
       </c>
-      <c r="BM4" s="14" t="s">
+      <c r="BN4" s="14" t="s">
         <v>1543</v>
       </c>
-      <c r="BN4" s="14" t="s">
+      <c r="BO4" s="14" t="s">
         <v>1544</v>
       </c>
-      <c r="BO4" s="14" t="s">
+      <c r="BP4" s="14" t="s">
         <v>1545</v>
       </c>
-      <c r="BP4" s="14" t="s">
+      <c r="BQ4" s="14" t="s">
         <v>1546</v>
       </c>
-      <c r="BQ4" s="14" t="s">
+      <c r="BR4" s="14" t="s">
         <v>1547</v>
       </c>
-      <c r="BR4" s="14" t="s">
+      <c r="BS4" s="14" t="s">
         <v>1548</v>
       </c>
-      <c r="BS4" s="14" t="s">
+      <c r="BT4" s="14" t="s">
         <v>1549</v>
       </c>
-      <c r="BT4" s="14" t="s">
+      <c r="BU4" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="BU4" s="14" t="s">
+      <c r="BV4" s="14" t="s">
         <v>1551</v>
       </c>
-      <c r="BV4" s="14" t="s">
+      <c r="BW4" s="14" t="s">
         <v>1552</v>
       </c>
-      <c r="BW4" s="14" t="s">
+      <c r="BX4" s="14" t="s">
         <v>1553</v>
       </c>
-      <c r="BX4" s="14" t="s">
+      <c r="BY4" s="14" t="s">
         <v>1554</v>
       </c>
-      <c r="BY4" s="14" t="s">
+      <c r="BZ4" s="14" t="s">
         <v>1555</v>
       </c>
-      <c r="BZ4" s="14" t="s">
+      <c r="CA4" s="14" t="s">
         <v>1556</v>
       </c>
-      <c r="CA4" s="14" t="s">
+      <c r="CB4" s="14" t="s">
         <v>1557</v>
       </c>
-      <c r="CB4" s="14" t="s">
+      <c r="CC4" s="14" t="s">
         <v>1558</v>
       </c>
-      <c r="CC4" s="14" t="s">
+      <c r="CD4" s="14" t="s">
         <v>1559</v>
       </c>
-      <c r="CD4" s="14" t="s">
+      <c r="CE4" s="14" t="s">
         <v>1560</v>
       </c>
-      <c r="CE4" s="14" t="s">
+      <c r="CF4" s="14" t="s">
         <v>1561</v>
       </c>
-      <c r="CF4" s="14" t="s">
+      <c r="CG4" s="14" t="s">
         <v>1562</v>
       </c>
-      <c r="CG4" s="14" t="s">
+      <c r="CH4" s="14" t="s">
         <v>1563</v>
       </c>
-      <c r="CH4" s="14" t="s">
+      <c r="CI4" s="14" t="s">
         <v>1564</v>
       </c>
-      <c r="CI4" s="14" t="s">
+      <c r="CJ4" s="14" t="s">
         <v>1565</v>
       </c>
-      <c r="CJ4" s="14" t="s">
+      <c r="CK4" s="14" t="s">
         <v>1566</v>
       </c>
-      <c r="CK4" s="14" t="s">
+      <c r="CL4" s="14" t="s">
         <v>1567</v>
       </c>
-      <c r="CL4" s="14" t="s">
+      <c r="CM4" s="14" t="s">
         <v>1568</v>
       </c>
-      <c r="CM4" s="14" t="s">
+      <c r="CN4" s="14" t="s">
         <v>1569</v>
       </c>
-      <c r="CN4" s="14" t="s">
+      <c r="CO4" s="14" t="s">
         <v>1570</v>
       </c>
-      <c r="CO4" s="14" t="s">
+      <c r="CP4" s="14" t="s">
         <v>1571</v>
       </c>
-      <c r="CP4" s="14" t="s">
+      <c r="CQ4" s="14" t="s">
         <v>1572</v>
       </c>
-      <c r="CQ4" s="14" t="s">
+      <c r="CR4" s="14" t="s">
         <v>1573</v>
       </c>
-      <c r="CR4" s="14" t="s">
+      <c r="CS4" s="14" t="s">
         <v>1574</v>
       </c>
-      <c r="CS4" s="14" t="s">
+      <c r="CT4" s="14" t="s">
         <v>1575</v>
       </c>
-      <c r="CT4" s="14" t="s">
+      <c r="CU4" s="14" t="s">
         <v>1576</v>
       </c>
-      <c r="CU4" s="14" t="s">
+      <c r="CV4" s="14" t="s">
         <v>1563</v>
       </c>
-      <c r="CV4" s="14" t="s">
+      <c r="CW4" s="14" t="s">
         <v>1577</v>
       </c>
-      <c r="CW4" s="14" t="s">
+      <c r="CX4" s="14" t="s">
         <v>1578</v>
       </c>
-      <c r="CX4" s="14" t="s">
+      <c r="CY4" s="14" t="s">
         <v>1579</v>
       </c>
-      <c r="CY4" s="14" t="s">
+      <c r="CZ4" s="14" t="s">
         <v>1580</v>
       </c>
-      <c r="CZ4" s="14" t="s">
+      <c r="DA4" s="14" t="s">
         <v>1581</v>
       </c>
-      <c r="DA4" s="14" t="s">
+      <c r="DB4" s="14" t="s">
         <v>1582</v>
       </c>
-      <c r="DB4" s="14" t="s">
+      <c r="DC4" s="14" t="s">
         <v>1583</v>
       </c>
-      <c r="DC4" s="14" t="s">
+      <c r="DD4" s="14" t="s">
         <v>1584</v>
       </c>
-      <c r="DD4" s="14" t="s">
+      <c r="DE4" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="DE4" s="14" t="s">
+      <c r="DF4" s="14" t="s">
         <v>1586</v>
       </c>
-      <c r="DF4" s="14" t="s">
+      <c r="DG4" s="14" t="s">
         <v>1587</v>
       </c>
-      <c r="DG4" s="14" t="s">
+      <c r="DH4" s="14" t="s">
         <v>1588</v>
       </c>
-      <c r="DH4" s="14" t="s">
+      <c r="DI4" s="14" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="5" spans="2:112">
+    <row r="5" spans="2:113">
       <c r="B5" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="2:112">
+    <row r="6" spans="2:113">
       <c r="B6" s="14" t="s">
         <v>112</v>
       </c>
@@ -24820,13 +24847,13 @@
         <v>5</v>
       </c>
       <c r="X6" s="14" t="s">
+        <v>2083</v>
+      </c>
+      <c r="Y6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="Z6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="14" t="s">
         <v>5</v>
@@ -24853,10 +24880,10 @@
         <v>5</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="14" t="s">
         <v>5</v>
@@ -24901,43 +24928,43 @@
         <v>5</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BA6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="BB6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="BD6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BE6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BF6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="BG6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BH6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="BI6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BJ6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="BK6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="14" t="s">
         <v>5</v>
@@ -24949,10 +24976,10 @@
         <v>5</v>
       </c>
       <c r="BO6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BP6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BQ6" s="14" t="s">
         <v>5</v>
@@ -24964,22 +24991,22 @@
         <v>5</v>
       </c>
       <c r="BT6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BU6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BV6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="BW6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BX6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="BY6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ6" s="14" t="s">
         <v>5</v>
@@ -24991,10 +25018,10 @@
         <v>5</v>
       </c>
       <c r="CC6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CD6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE6" s="14" t="s">
         <v>5</v>
@@ -25006,22 +25033,22 @@
         <v>5</v>
       </c>
       <c r="CH6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CI6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="CJ6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="CK6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="CL6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="CM6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN6" s="14" t="s">
         <v>5</v>
@@ -25033,10 +25060,10 @@
         <v>5</v>
       </c>
       <c r="CQ6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CR6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS6" s="14" t="s">
         <v>5</v>
@@ -25048,31 +25075,31 @@
         <v>5</v>
       </c>
       <c r="CV6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CW6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="CX6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="CY6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="CZ6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="DA6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="DB6" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="DC6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="DD6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DE6" s="14" t="s">
         <v>5</v>
@@ -25081,13 +25108,16 @@
         <v>5</v>
       </c>
       <c r="DG6" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DH6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:112">
+    <row r="7" spans="2:113">
       <c r="B7" s="14" t="s">
         <v>113</v>
       </c>
@@ -25155,19 +25185,19 @@
         <v>176</v>
       </c>
       <c r="X7" s="14" t="s">
+        <v>2084</v>
+      </c>
+      <c r="Y7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Z7" s="14">
         <v>27</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AA7" s="14">
         <v>13</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AB7" s="14">
         <v>2</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>3</v>
       </c>
       <c r="AC7" s="14">
         <v>3</v>
@@ -25188,11 +25218,11 @@
         <v>3</v>
       </c>
       <c r="AI7" s="14">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="14">
         <v>10</v>
       </c>
-      <c r="AJ7" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="AK7" s="14" t="s">
         <v>1</v>
       </c>
@@ -25208,12 +25238,12 @@
       <c r="AO7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AP7" s="14">
+      <c r="AP7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="14">
         <v>2</v>
       </c>
-      <c r="AQ7" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="AR7" s="14" t="s">
         <v>1</v>
       </c>
@@ -25223,8 +25253,8 @@
       <c r="AT7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AU7" s="14">
-        <v>2</v>
+      <c r="AU7" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="AV7" s="14">
         <v>2</v>
@@ -25236,193 +25266,196 @@
         <v>2</v>
       </c>
       <c r="AY7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="14">
         <v>18</v>
       </c>
-      <c r="AZ7" s="14">
+      <c r="BA7" s="14">
         <v>2</v>
       </c>
-      <c r="BA7" s="14">
+      <c r="BB7" s="14">
         <v>30</v>
       </c>
-      <c r="BB7" s="14">
+      <c r="BC7" s="14">
         <v>48</v>
       </c>
-      <c r="BC7" s="14">
+      <c r="BD7" s="14">
         <v>8</v>
       </c>
-      <c r="BD7" s="14">
+      <c r="BE7" s="14">
         <v>10</v>
       </c>
-      <c r="BE7" s="14">
+      <c r="BF7" s="14">
         <v>4</v>
       </c>
-      <c r="BF7" s="14">
+      <c r="BG7" s="14">
         <v>27</v>
       </c>
-      <c r="BG7" s="14">
+      <c r="BH7" s="14">
         <v>100</v>
       </c>
-      <c r="BH7" s="14">
+      <c r="BI7" s="14">
         <v>13</v>
       </c>
-      <c r="BI7" s="14">
+      <c r="BJ7" s="14">
         <v>8</v>
       </c>
-      <c r="BJ7" s="14">
+      <c r="BK7" s="14">
         <v>30</v>
       </c>
-      <c r="BK7" s="14">
+      <c r="BL7" s="14">
         <v>48</v>
       </c>
-      <c r="BL7" s="14">
+      <c r="BM7" s="14">
         <v>8</v>
       </c>
-      <c r="BM7" s="14">
-        <v>1</v>
-      </c>
       <c r="BN7" s="14">
         <v>1</v>
       </c>
       <c r="BO7" s="14">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="14">
         <v>96</v>
-      </c>
-      <c r="BP7" s="14">
-        <v>20</v>
       </c>
       <c r="BQ7" s="14">
         <v>20</v>
       </c>
       <c r="BR7" s="14">
+        <v>20</v>
+      </c>
+      <c r="BS7" s="14">
         <v>2</v>
       </c>
-      <c r="BS7" s="14">
+      <c r="BT7" s="14">
         <v>4</v>
       </c>
-      <c r="BT7" s="14">
+      <c r="BU7" s="14">
         <v>27</v>
       </c>
-      <c r="BU7" s="14">
+      <c r="BV7" s="14">
         <v>100</v>
       </c>
-      <c r="BV7" s="14">
+      <c r="BW7" s="14">
         <v>13</v>
       </c>
-      <c r="BW7" s="14">
+      <c r="BX7" s="14">
         <v>8</v>
       </c>
-      <c r="BX7" s="14">
+      <c r="BY7" s="14">
         <v>30</v>
       </c>
-      <c r="BY7" s="14">
+      <c r="BZ7" s="14">
         <v>48</v>
       </c>
-      <c r="BZ7" s="14">
+      <c r="CA7" s="14">
         <v>8</v>
       </c>
-      <c r="CA7" s="14">
-        <v>1</v>
-      </c>
       <c r="CB7" s="14">
         <v>1</v>
       </c>
       <c r="CC7" s="14">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="14">
         <v>96</v>
-      </c>
-      <c r="CD7" s="14">
-        <v>20</v>
       </c>
       <c r="CE7" s="14">
         <v>20</v>
       </c>
       <c r="CF7" s="14">
+        <v>20</v>
+      </c>
+      <c r="CG7" s="14">
         <v>2</v>
       </c>
-      <c r="CG7" s="14">
+      <c r="CH7" s="14">
         <v>4</v>
       </c>
-      <c r="CH7" s="14">
+      <c r="CI7" s="14">
         <v>27</v>
       </c>
-      <c r="CI7" s="14">
+      <c r="CJ7" s="14">
         <v>100</v>
       </c>
-      <c r="CJ7" s="14">
+      <c r="CK7" s="14">
         <v>13</v>
       </c>
-      <c r="CK7" s="14">
+      <c r="CL7" s="14">
         <v>8</v>
       </c>
-      <c r="CL7" s="14">
+      <c r="CM7" s="14">
         <v>30</v>
       </c>
-      <c r="CM7" s="14">
+      <c r="CN7" s="14">
         <v>48</v>
       </c>
-      <c r="CN7" s="14">
+      <c r="CO7" s="14">
         <v>8</v>
       </c>
-      <c r="CO7" s="14">
-        <v>1</v>
-      </c>
       <c r="CP7" s="14">
         <v>1</v>
       </c>
       <c r="CQ7" s="14">
+        <v>1</v>
+      </c>
+      <c r="CR7" s="14">
         <v>96</v>
-      </c>
-      <c r="CR7" s="14">
-        <v>20</v>
       </c>
       <c r="CS7" s="14">
         <v>20</v>
       </c>
       <c r="CT7" s="14">
+        <v>20</v>
+      </c>
+      <c r="CU7" s="14">
         <v>2</v>
       </c>
-      <c r="CU7" s="14">
+      <c r="CV7" s="14">
         <v>4</v>
       </c>
-      <c r="CV7" s="14">
+      <c r="CW7" s="14">
         <v>27</v>
       </c>
-      <c r="CW7" s="14">
+      <c r="CX7" s="14">
         <v>100</v>
       </c>
-      <c r="CX7" s="14">
+      <c r="CY7" s="14">
         <v>13</v>
       </c>
-      <c r="CY7" s="14">
+      <c r="CZ7" s="14">
         <v>8</v>
       </c>
-      <c r="CZ7" s="14">
+      <c r="DA7" s="14">
         <v>30</v>
       </c>
-      <c r="DA7" s="14">
+      <c r="DB7" s="14">
         <v>48</v>
       </c>
-      <c r="DB7" s="14">
+      <c r="DC7" s="14">
         <v>60</v>
       </c>
-      <c r="DC7" s="14">
+      <c r="DD7" s="14">
         <v>10</v>
       </c>
-      <c r="DD7" s="14">
+      <c r="DE7" s="14">
         <v>13</v>
       </c>
-      <c r="DE7" s="14">
+      <c r="DF7" s="14">
         <v>102</v>
       </c>
-      <c r="DF7" s="14">
+      <c r="DG7" s="14">
         <v>7</v>
       </c>
-      <c r="DG7" s="14">
+      <c r="DH7" s="14">
         <v>96</v>
       </c>
-      <c r="DH7" s="14">
+      <c r="DI7" s="14">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="2:112" s="2" customFormat="1">
+    <row r="9" spans="2:113" s="2" customFormat="1">
       <c r="C9" s="15" t="s">
         <v>1683</v>
       </c>
@@ -25482,245 +25515,246 @@
       <c r="W9" s="15" t="s">
         <v>1601</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15" t="s">
         <v>1603</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15" t="s">
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15" t="s">
         <v>1605</v>
       </c>
-      <c r="AA9" s="15" t="s">
-        <v>1</v>
-      </c>
       <c r="AB9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" s="15" t="s">
+      <c r="AD9" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AD9" s="15" t="s">
+      <c r="AE9" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AF9" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="AF9" s="15" t="s">
+      <c r="AG9" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="AG9" s="15" t="s">
+      <c r="AH9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15" t="s">
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15" t="s">
         <v>1607</v>
       </c>
-      <c r="AJ9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15" t="s">
+      <c r="AK9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15" t="s">
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="AP9" s="15"/>
       <c r="AQ9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15" t="s">
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15" t="s">
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AV9" s="15" t="s">
+      <c r="AW9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AW9" s="15" t="s">
+      <c r="AX9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15" t="s">
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15" t="s">
         <v>1615</v>
       </c>
-      <c r="AZ9" s="15" t="s">
-        <v>1</v>
-      </c>
       <c r="BA9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="15" t="s">
         <v>1616</v>
       </c>
-      <c r="BB9" s="15" t="s">
+      <c r="BC9" s="15" t="s">
         <v>1617</v>
       </c>
-      <c r="BC9" s="15" t="s">
+      <c r="BD9" s="15" t="s">
         <v>1619</v>
       </c>
-      <c r="BD9" s="15" t="s">
+      <c r="BE9" s="15" t="s">
         <v>1621</v>
       </c>
-      <c r="BE9" s="15" t="s">
+      <c r="BF9" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="BF9" s="15" t="s">
+      <c r="BG9" s="15" t="s">
         <v>1623</v>
       </c>
-      <c r="BG9" s="15" t="s">
+      <c r="BH9" s="15" t="s">
         <v>1624</v>
       </c>
-      <c r="BH9" s="15" t="s">
+      <c r="BI9" s="15" t="s">
         <v>1626</v>
       </c>
-      <c r="BI9" s="15" t="s">
+      <c r="BJ9" s="15" t="s">
         <v>1627</v>
       </c>
-      <c r="BJ9" s="15" t="s">
+      <c r="BK9" s="15" t="s">
         <v>1629</v>
       </c>
-      <c r="BK9" s="15" t="s">
+      <c r="BL9" s="15" t="s">
         <v>1630</v>
       </c>
-      <c r="BL9" s="15" t="s">
+      <c r="BM9" s="15" t="s">
         <v>1632</v>
       </c>
-      <c r="BM9" s="15" t="s">
+      <c r="BN9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BN9" s="15"/>
-      <c r="BO9" s="15" t="s">
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15" t="s">
         <v>1684</v>
       </c>
-      <c r="BP9" s="15" t="s">
+      <c r="BQ9" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="BQ9" s="15"/>
-      <c r="BR9" s="15" t="s">
+      <c r="BR9" s="15"/>
+      <c r="BS9" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="BS9" s="15" t="s">
+      <c r="BT9" s="15" t="s">
         <v>1603</v>
       </c>
-      <c r="BT9" s="15"/>
-      <c r="BU9" s="15" t="s">
+      <c r="BU9" s="15"/>
+      <c r="BV9" s="15" t="s">
         <v>1634</v>
       </c>
-      <c r="BV9" s="15" t="s">
+      <c r="BW9" s="15" t="s">
         <v>1653</v>
       </c>
-      <c r="BW9" s="15" t="s">
+      <c r="BX9" s="15" t="s">
         <v>1636</v>
       </c>
-      <c r="BX9" s="15" t="s">
+      <c r="BY9" s="15" t="s">
         <v>1639</v>
       </c>
-      <c r="BY9" s="15" t="s">
+      <c r="BZ9" s="15" t="s">
         <v>1641</v>
       </c>
-      <c r="BZ9" s="15" t="s">
+      <c r="CA9" s="15" t="s">
         <v>1643</v>
       </c>
-      <c r="CA9" s="15" t="s">
+      <c r="CB9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="CB9" s="15"/>
-      <c r="CC9" s="15" t="s">
+      <c r="CC9" s="15"/>
+      <c r="CD9" s="15" t="s">
         <v>1645</v>
       </c>
-      <c r="CD9" s="15" t="s">
+      <c r="CE9" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="CE9" s="15"/>
-      <c r="CF9" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="CF9" s="15"/>
       <c r="CG9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="CH9" s="15" t="s">
+      <c r="CI9" s="15" t="s">
         <v>1646</v>
       </c>
-      <c r="CI9" s="15" t="s">
+      <c r="CJ9" s="15" t="s">
         <v>1648</v>
       </c>
-      <c r="CJ9" s="15" t="s">
+      <c r="CK9" s="15" t="s">
         <v>1652</v>
       </c>
-      <c r="CK9" s="15" t="s">
+      <c r="CL9" s="15" t="s">
         <v>1650</v>
       </c>
-      <c r="CL9" s="15" t="s">
+      <c r="CM9" s="15" t="s">
         <v>1654</v>
       </c>
-      <c r="CM9" s="15" t="s">
+      <c r="CN9" s="15" t="s">
         <v>1656</v>
       </c>
-      <c r="CN9" s="15" t="s">
+      <c r="CO9" s="15" t="s">
         <v>1658</v>
       </c>
-      <c r="CO9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CP9" s="15"/>
-      <c r="CQ9" s="15" t="s">
+      <c r="CP9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="15"/>
+      <c r="CR9" s="15" t="s">
         <v>1660</v>
       </c>
-      <c r="CR9" s="15" t="s">
+      <c r="CS9" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="CS9" s="15"/>
-      <c r="CT9" s="15" t="s">
+      <c r="CT9" s="15"/>
+      <c r="CU9" s="15" t="s">
         <v>1603</v>
       </c>
-      <c r="CU9" s="15" t="s">
+      <c r="CV9" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="CV9" s="15" t="s">
+      <c r="CW9" s="15" t="s">
         <v>1661</v>
       </c>
-      <c r="CW9" s="15" t="s">
+      <c r="CX9" s="15" t="s">
         <v>1662</v>
       </c>
-      <c r="CX9" s="15" t="s">
+      <c r="CY9" s="15" t="s">
         <v>1664</v>
       </c>
-      <c r="CY9" s="15" t="s">
+      <c r="CZ9" s="15" t="s">
         <v>1665</v>
       </c>
-      <c r="CZ9" s="15" t="s">
+      <c r="DA9" s="15" t="s">
         <v>1669</v>
       </c>
-      <c r="DA9" s="15" t="s">
+      <c r="DB9" s="15" t="s">
         <v>1667</v>
       </c>
-      <c r="DB9" s="15" t="s">
+      <c r="DC9" s="15" t="s">
         <v>1670</v>
       </c>
-      <c r="DC9" s="15" t="s">
+      <c r="DD9" s="15" t="s">
         <v>1671</v>
       </c>
-      <c r="DD9" s="15" t="s">
+      <c r="DE9" s="15" t="s">
         <v>1672</v>
       </c>
-      <c r="DE9" s="15" t="s">
+      <c r="DF9" s="15" t="s">
         <v>1674</v>
       </c>
-      <c r="DF9" s="15" t="s">
+      <c r="DG9" s="15" t="s">
         <v>1676</v>
       </c>
-      <c r="DG9" s="15" t="s">
+      <c r="DH9" s="15" t="s">
         <v>1680</v>
       </c>
-      <c r="DH9" s="15" t="s">
+      <c r="DI9" s="15" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="10" spans="2:112" s="2" customFormat="1" ht="18.75">
+    <row r="10" spans="2:113" s="2" customFormat="1" ht="18.75">
       <c r="C10" s="15" t="s">
         <v>1687</v>
       </c>
@@ -25760,13 +25794,13 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="15" t="s">
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
         <v>1688</v>
       </c>
-      <c r="AA10" s="15" t="s">
+      <c r="AB10" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
@@ -25774,22 +25808,22 @@
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
       <c r="AI10" s="15"/>
-      <c r="AJ10" s="15" t="s">
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15" t="s">
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15" t="s">
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15" t="s">
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AQ10" s="15"/>
       <c r="AR10" s="15"/>
       <c r="AS10" s="15"/>
       <c r="AT10" s="15"/>
@@ -25798,10 +25832,10 @@
       <c r="AW10" s="15"/>
       <c r="AX10" s="15"/>
       <c r="AY10" s="15"/>
-      <c r="AZ10" s="15" t="s">
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="BA10" s="15"/>
       <c r="BB10" s="15"/>
       <c r="BC10" s="15"/>
       <c r="BD10" s="15"/>
@@ -25852,35 +25886,36 @@
       <c r="CW10" s="15"/>
       <c r="CX10" s="15"/>
       <c r="CY10" s="15"/>
-      <c r="CZ10" s="15" t="s">
+      <c r="CZ10" s="15"/>
+      <c r="DA10" s="15" t="s">
         <v>1669</v>
       </c>
-      <c r="DA10" s="15" t="s">
+      <c r="DB10" s="15" t="s">
         <v>1667</v>
       </c>
-      <c r="DB10" s="15" t="s">
+      <c r="DC10" s="15" t="s">
         <v>1670</v>
       </c>
-      <c r="DC10" s="15" t="s">
+      <c r="DD10" s="15" t="s">
         <v>1671</v>
       </c>
-      <c r="DD10" s="15" t="s">
+      <c r="DE10" s="15" t="s">
         <v>1672</v>
       </c>
-      <c r="DE10" s="16" t="s">
+      <c r="DF10" s="16" t="s">
         <v>1674</v>
       </c>
-      <c r="DF10" s="15" t="s">
+      <c r="DG10" s="15" t="s">
         <v>1676</v>
       </c>
-      <c r="DG10" s="15" t="s">
+      <c r="DH10" s="15" t="s">
         <v>1680</v>
       </c>
-      <c r="DH10" s="15" t="s">
+      <c r="DI10" s="15" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="11" spans="2:112">
+    <row r="11" spans="2:113">
       <c r="C11" s="14" t="s">
         <v>1736</v>
       </c>
@@ -25908,197 +25943,197 @@
       <c r="Q11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="AB11" s="14" t="s">
+      <c r="AC11" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="AG11" s="14" t="s">
+      <c r="AH11" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="AI11" s="14" t="s">
+      <c r="AJ11" s="14" t="s">
         <v>1607</v>
       </c>
-      <c r="AJ11" s="14" t="s">
+      <c r="AK11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AL11" s="14" t="s">
+      <c r="AM11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AN11" s="14" t="s">
+      <c r="AO11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AQ11" s="14" t="s">
+      <c r="AR11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AS11" s="14" t="s">
+      <c r="AT11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AU11" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="AV11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AY11" s="14" t="s">
+      <c r="AZ11" s="14" t="s">
         <v>1615</v>
       </c>
-      <c r="BA11" s="14" t="s">
+      <c r="BB11" s="14" t="s">
         <v>1616</v>
       </c>
-      <c r="BB11" s="14" t="s">
+      <c r="BC11" s="14" t="s">
         <v>1617</v>
       </c>
-      <c r="BC11" s="14" t="s">
+      <c r="BD11" s="14" t="s">
         <v>1619</v>
       </c>
-      <c r="BD11" s="14" t="s">
+      <c r="BE11" s="14" t="s">
         <v>1621</v>
       </c>
-      <c r="BF11" s="14" t="s">
+      <c r="BG11" s="14" t="s">
         <v>1623</v>
       </c>
-      <c r="BG11" s="14" t="s">
+      <c r="BH11" s="14" t="s">
         <v>1624</v>
       </c>
-      <c r="BH11" s="14" t="s">
+      <c r="BI11" s="14" t="s">
         <v>1626</v>
       </c>
-      <c r="BI11" s="14" t="s">
+      <c r="BJ11" s="14" t="s">
         <v>1627</v>
       </c>
-      <c r="BJ11" s="14" t="s">
+      <c r="BK11" s="14" t="s">
         <v>1629</v>
       </c>
-      <c r="BK11" s="14" t="s">
+      <c r="BL11" s="14" t="s">
         <v>1630</v>
       </c>
-      <c r="BL11" s="14" t="s">
+      <c r="BM11" s="14" t="s">
         <v>1632</v>
       </c>
-      <c r="BM11" s="14" t="s">
+      <c r="BN11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="BO11" s="14" t="s">
+      <c r="BP11" s="14" t="s">
         <v>1684</v>
       </c>
-      <c r="BP11" s="14" t="s">
+      <c r="BQ11" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="BR11" s="14" t="s">
+      <c r="BS11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="BT11" s="14" t="s">
+      <c r="BU11" s="14" t="s">
         <v>1735</v>
       </c>
-      <c r="BU11" s="14" t="s">
+      <c r="BV11" s="14" t="s">
         <v>1634</v>
       </c>
-      <c r="BV11" s="14" t="s">
+      <c r="BW11" s="14" t="s">
         <v>1653</v>
       </c>
-      <c r="BW11" s="14" t="s">
+      <c r="BX11" s="14" t="s">
         <v>1636</v>
       </c>
-      <c r="BX11" s="14" t="s">
+      <c r="BY11" s="14" t="s">
         <v>1639</v>
       </c>
-      <c r="BY11" s="14" t="s">
+      <c r="BZ11" s="14" t="s">
         <v>1641</v>
       </c>
-      <c r="BZ11" s="14" t="s">
+      <c r="CA11" s="14" t="s">
         <v>1643</v>
       </c>
-      <c r="CA11" s="14" t="s">
+      <c r="CB11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="CC11" s="14" t="s">
+      <c r="CD11" s="14" t="s">
         <v>1645</v>
       </c>
-      <c r="CD11" s="14" t="s">
+      <c r="CE11" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="CF11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="CH11" s="14" t="s">
+      <c r="CG11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI11" s="14" t="s">
         <v>1646</v>
       </c>
-      <c r="CI11" s="14" t="s">
+      <c r="CJ11" s="14" t="s">
         <v>1648</v>
       </c>
-      <c r="CJ11" s="14" t="s">
+      <c r="CK11" s="14" t="s">
         <v>1652</v>
       </c>
-      <c r="CK11" s="14" t="s">
+      <c r="CL11" s="14" t="s">
         <v>1650</v>
       </c>
-      <c r="CL11" s="14" t="s">
+      <c r="CM11" s="14" t="s">
         <v>1654</v>
       </c>
-      <c r="CM11" s="14" t="s">
+      <c r="CN11" s="14" t="s">
         <v>1656</v>
       </c>
-      <c r="CN11" s="14" t="s">
+      <c r="CO11" s="14" t="s">
         <v>1658</v>
       </c>
-      <c r="CO11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="14" t="s">
+      <c r="CP11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="14" t="s">
         <v>1660</v>
       </c>
-      <c r="CR11" s="14" t="s">
+      <c r="CS11" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="CT11" s="14" t="s">
+      <c r="CU11" s="14" t="s">
         <v>1603</v>
       </c>
-      <c r="CV11" s="14" t="s">
+      <c r="CW11" s="14" t="s">
         <v>1661</v>
       </c>
-      <c r="CW11" s="14" t="s">
+      <c r="CX11" s="14" t="s">
         <v>1662</v>
       </c>
-      <c r="CX11" s="14" t="s">
+      <c r="CY11" s="14" t="s">
         <v>1664</v>
       </c>
-      <c r="CY11" s="14" t="s">
+      <c r="CZ11" s="14" t="s">
         <v>1665</v>
       </c>
-      <c r="CZ11" s="14" t="s">
+      <c r="DA11" s="14" t="s">
         <v>1669</v>
       </c>
-      <c r="DA11" s="14" t="s">
+      <c r="DB11" s="14" t="s">
         <v>1667</v>
       </c>
-      <c r="DB11" s="14" t="s">
+      <c r="DC11" s="14" t="s">
         <v>1670</v>
       </c>
-      <c r="DC11" s="14" t="s">
+      <c r="DD11" s="14" t="s">
         <v>1671</v>
       </c>
-      <c r="DD11" s="14" t="s">
+      <c r="DE11" s="14" t="s">
         <v>1672</v>
       </c>
-      <c r="DE11" s="14" t="s">
+      <c r="DF11" s="14" t="s">
         <v>1674</v>
       </c>
-      <c r="DF11" s="14" t="s">
+      <c r="DG11" s="14" t="s">
         <v>1676</v>
       </c>
-      <c r="DG11" s="14" t="s">
+      <c r="DH11" s="14" t="s">
         <v>1680</v>
       </c>
-      <c r="DH11" s="14" t="s">
+      <c r="DI11" s="14" t="s">
         <v>1678</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <hyperlinks>
-    <hyperlink ref="DE10" r:id="rId1" xr:uid="{C33F28AB-FAA8-46B6-AA43-2FEC7B888D02}"/>
+    <hyperlink ref="DF10" r:id="rId1" xr:uid="{C33F28AB-FAA8-46B6-AA43-2FEC7B888D02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29548,7 +29583,7 @@
     <col min="12" max="12" width="27.25" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.75" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.25" style="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.125" style="14" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="17.125" style="14" bestFit="1" customWidth="1"/>
@@ -29627,1542 +29662,1542 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:103">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>1750</v>
       </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
         <v>2</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <v>3</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="18">
         <v>4</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="18">
         <v>5</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="18">
         <v>6</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="18">
         <v>7</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="18">
         <v>8</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="18">
         <v>9</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="18">
         <v>10</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="18">
         <v>11</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="18">
         <v>12</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="18">
         <v>13</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="19">
         <v>14</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="18">
         <v>15</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="18">
         <v>16</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="18">
         <v>17</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="18">
         <v>18</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="18">
         <v>19</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="18">
         <v>20</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="18">
         <v>21</v>
       </c>
-      <c r="X2" s="20">
+      <c r="X2" s="18">
         <v>22</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="18">
         <v>23</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="18">
         <v>24</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="18">
         <v>25</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="18">
         <v>26</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="18">
         <v>27</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AD2" s="18">
         <v>28</v>
       </c>
-      <c r="AE2" s="20">
+      <c r="AE2" s="18">
         <v>29</v>
       </c>
-      <c r="AF2" s="20">
+      <c r="AF2" s="18">
         <v>30</v>
       </c>
-      <c r="AG2" s="20">
+      <c r="AG2" s="18">
         <v>31</v>
       </c>
-      <c r="AH2" s="20">
+      <c r="AH2" s="18">
         <v>32</v>
       </c>
-      <c r="AI2" s="20">
+      <c r="AI2" s="18">
         <v>33</v>
       </c>
-      <c r="AJ2" s="20">
+      <c r="AJ2" s="18">
         <v>34</v>
       </c>
-      <c r="AK2" s="20">
+      <c r="AK2" s="18">
         <v>35</v>
       </c>
-      <c r="AL2" s="20">
+      <c r="AL2" s="18">
         <v>36</v>
       </c>
-      <c r="AM2" s="20">
+      <c r="AM2" s="18">
         <v>37</v>
       </c>
-      <c r="AN2" s="20">
+      <c r="AN2" s="18">
         <v>38</v>
       </c>
-      <c r="AO2" s="20">
+      <c r="AO2" s="18">
         <v>39</v>
       </c>
-      <c r="AP2" s="20">
+      <c r="AP2" s="18">
         <v>40</v>
       </c>
-      <c r="AQ2" s="20">
+      <c r="AQ2" s="18">
         <v>41</v>
       </c>
-      <c r="AR2" s="20">
+      <c r="AR2" s="18">
         <v>42</v>
       </c>
-      <c r="AS2" s="20">
+      <c r="AS2" s="18">
         <v>43</v>
       </c>
-      <c r="AT2" s="20">
+      <c r="AT2" s="18">
         <v>44</v>
       </c>
-      <c r="AU2" s="20">
+      <c r="AU2" s="18">
         <v>45</v>
       </c>
-      <c r="AV2" s="20">
+      <c r="AV2" s="18">
         <v>46</v>
       </c>
-      <c r="AW2" s="20">
+      <c r="AW2" s="18">
         <v>47</v>
       </c>
-      <c r="AX2" s="20">
+      <c r="AX2" s="18">
         <v>48</v>
       </c>
-      <c r="AY2" s="20">
+      <c r="AY2" s="18">
         <v>49</v>
       </c>
-      <c r="AZ2" s="20">
+      <c r="AZ2" s="18">
         <v>50</v>
       </c>
-      <c r="BA2" s="20">
+      <c r="BA2" s="18">
         <v>51</v>
       </c>
-      <c r="BB2" s="20">
+      <c r="BB2" s="18">
         <v>52</v>
       </c>
-      <c r="BC2" s="20">
+      <c r="BC2" s="18">
         <v>53</v>
       </c>
-      <c r="BD2" s="20">
+      <c r="BD2" s="18">
         <v>54</v>
       </c>
-      <c r="BE2" s="20">
+      <c r="BE2" s="18">
         <v>55</v>
       </c>
-      <c r="BF2" s="20">
+      <c r="BF2" s="18">
         <v>56</v>
       </c>
-      <c r="BG2" s="20">
+      <c r="BG2" s="18">
         <v>57</v>
       </c>
-      <c r="BH2" s="20">
+      <c r="BH2" s="18">
         <v>58</v>
       </c>
-      <c r="BI2" s="20">
+      <c r="BI2" s="18">
         <v>59</v>
       </c>
-      <c r="BJ2" s="20">
+      <c r="BJ2" s="18">
         <v>60</v>
       </c>
-      <c r="BK2" s="20">
+      <c r="BK2" s="18">
         <v>61</v>
       </c>
-      <c r="BL2" s="20">
+      <c r="BL2" s="18">
         <v>62</v>
       </c>
-      <c r="BM2" s="20">
+      <c r="BM2" s="18">
         <v>63</v>
       </c>
-      <c r="BN2" s="20">
+      <c r="BN2" s="18">
         <v>64</v>
       </c>
-      <c r="BO2" s="20">
+      <c r="BO2" s="18">
         <v>65</v>
       </c>
-      <c r="BP2" s="20">
+      <c r="BP2" s="18">
         <v>66</v>
       </c>
-      <c r="BQ2" s="20">
+      <c r="BQ2" s="18">
         <v>67</v>
       </c>
-      <c r="BR2" s="20">
+      <c r="BR2" s="18">
         <v>68</v>
       </c>
-      <c r="BS2" s="20">
+      <c r="BS2" s="18">
         <v>69</v>
       </c>
-      <c r="BT2" s="20">
+      <c r="BT2" s="18">
         <v>70</v>
       </c>
-      <c r="BU2" s="20">
+      <c r="BU2" s="18">
         <v>71</v>
       </c>
-      <c r="BV2" s="20">
+      <c r="BV2" s="18">
         <v>72</v>
       </c>
-      <c r="BW2" s="20">
+      <c r="BW2" s="18">
         <v>73</v>
       </c>
-      <c r="BX2" s="20">
+      <c r="BX2" s="18">
         <v>74</v>
       </c>
-      <c r="BY2" s="20">
+      <c r="BY2" s="18">
         <v>75</v>
       </c>
-      <c r="BZ2" s="20">
+      <c r="BZ2" s="18">
         <v>76</v>
       </c>
-      <c r="CA2" s="20">
+      <c r="CA2" s="18">
         <v>77</v>
       </c>
-      <c r="CB2" s="20">
+      <c r="CB2" s="18">
         <v>78</v>
       </c>
-      <c r="CC2" s="20">
+      <c r="CC2" s="18">
         <v>79</v>
       </c>
-      <c r="CD2" s="20">
+      <c r="CD2" s="18">
         <v>80</v>
       </c>
-      <c r="CE2" s="20">
+      <c r="CE2" s="18">
         <v>81</v>
       </c>
-      <c r="CF2" s="20">
+      <c r="CF2" s="18">
         <v>82</v>
       </c>
-      <c r="CG2" s="20">
+      <c r="CG2" s="18">
         <v>83</v>
       </c>
-      <c r="CH2" s="20">
+      <c r="CH2" s="18">
         <v>84</v>
       </c>
-      <c r="CI2" s="20">
+      <c r="CI2" s="18">
         <v>85</v>
       </c>
-      <c r="CJ2" s="20">
+      <c r="CJ2" s="18">
         <v>86</v>
       </c>
-      <c r="CK2" s="20">
+      <c r="CK2" s="18">
         <v>87</v>
       </c>
-      <c r="CL2" s="20">
+      <c r="CL2" s="18">
         <v>88</v>
       </c>
-      <c r="CM2" s="20">
+      <c r="CM2" s="18">
         <v>89</v>
       </c>
-      <c r="CN2" s="20">
+      <c r="CN2" s="18">
         <v>90</v>
       </c>
-      <c r="CO2" s="20">
+      <c r="CO2" s="18">
         <v>91</v>
       </c>
-      <c r="CP2" s="20">
+      <c r="CP2" s="18">
         <v>92</v>
       </c>
-      <c r="CQ2" s="20">
+      <c r="CQ2" s="18">
         <v>93</v>
       </c>
-      <c r="CR2" s="20">
+      <c r="CR2" s="18">
         <v>94</v>
       </c>
-      <c r="CS2" s="20">
+      <c r="CS2" s="18">
         <v>95</v>
       </c>
-      <c r="CT2" s="20">
+      <c r="CT2" s="18">
         <v>96</v>
       </c>
-      <c r="CU2" s="20">
+      <c r="CU2" s="18">
         <v>97</v>
       </c>
-      <c r="CV2" s="20">
+      <c r="CV2" s="18">
         <v>98</v>
       </c>
-      <c r="CW2" s="20">
+      <c r="CW2" s="18">
         <v>99</v>
       </c>
-      <c r="CX2" s="20">
+      <c r="CX2" s="18">
         <v>100</v>
       </c>
-      <c r="CY2" s="20">
+      <c r="CY2" s="18">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:103">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>1751</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>1769</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>1770</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>1771</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>1772</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>1773</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>1774</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>1775</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>1776</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>1777</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>1778</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>1779</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>1780</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="18" t="s">
         <v>1781</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="19" t="s">
         <v>1782</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="18" t="s">
         <v>1783</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="18" t="s">
         <v>1784</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="18" t="s">
         <v>1785</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="18" t="s">
         <v>1786</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="18" t="s">
         <v>1787</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="18" t="s">
         <v>1788</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="18" t="s">
         <v>1789</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="18" t="s">
         <v>1790</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="18" t="s">
         <v>1791</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="18" t="s">
         <v>1792</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="18" t="s">
         <v>1793</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="18" t="s">
         <v>1794</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="18" t="s">
         <v>1795</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="18" t="s">
         <v>1796</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="18" t="s">
         <v>1797</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="18" t="s">
         <v>1798</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="18" t="s">
         <v>1799</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AH3" s="18" t="s">
         <v>1800</v>
       </c>
-      <c r="AI3" s="20" t="s">
+      <c r="AI3" s="18" t="s">
         <v>1801</v>
       </c>
-      <c r="AJ3" s="20" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>1802</v>
       </c>
-      <c r="AK3" s="20" t="s">
+      <c r="AK3" s="18" t="s">
         <v>1803</v>
       </c>
-      <c r="AL3" s="20" t="s">
+      <c r="AL3" s="18" t="s">
         <v>1804</v>
       </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AM3" s="18" t="s">
         <v>1805</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="18" t="s">
         <v>1806</v>
       </c>
-      <c r="AO3" s="20" t="s">
+      <c r="AO3" s="18" t="s">
         <v>1807</v>
       </c>
-      <c r="AP3" s="20" t="s">
+      <c r="AP3" s="18" t="s">
         <v>1808</v>
       </c>
-      <c r="AQ3" s="20" t="s">
+      <c r="AQ3" s="18" t="s">
         <v>1809</v>
       </c>
-      <c r="AR3" s="20" t="s">
+      <c r="AR3" s="18" t="s">
         <v>1810</v>
       </c>
-      <c r="AS3" s="20" t="s">
+      <c r="AS3" s="18" t="s">
         <v>1811</v>
       </c>
-      <c r="AT3" s="20" t="s">
+      <c r="AT3" s="18" t="s">
         <v>1812</v>
       </c>
-      <c r="AU3" s="20" t="s">
+      <c r="AU3" s="18" t="s">
         <v>1813</v>
       </c>
-      <c r="AV3" s="20" t="s">
+      <c r="AV3" s="18" t="s">
         <v>1814</v>
       </c>
-      <c r="AW3" s="20" t="s">
+      <c r="AW3" s="18" t="s">
         <v>1815</v>
       </c>
-      <c r="AX3" s="20" t="s">
+      <c r="AX3" s="18" t="s">
         <v>1816</v>
       </c>
-      <c r="AY3" s="20" t="s">
+      <c r="AY3" s="18" t="s">
         <v>1817</v>
       </c>
-      <c r="AZ3" s="20" t="s">
+      <c r="AZ3" s="18" t="s">
         <v>1818</v>
       </c>
-      <c r="BA3" s="20" t="s">
+      <c r="BA3" s="18" t="s">
         <v>1819</v>
       </c>
-      <c r="BB3" s="20" t="s">
+      <c r="BB3" s="18" t="s">
         <v>1820</v>
       </c>
-      <c r="BC3" s="20" t="s">
+      <c r="BC3" s="18" t="s">
         <v>1821</v>
       </c>
-      <c r="BD3" s="20" t="s">
+      <c r="BD3" s="18" t="s">
         <v>1822</v>
       </c>
-      <c r="BE3" s="20" t="s">
+      <c r="BE3" s="18" t="s">
         <v>1823</v>
       </c>
-      <c r="BF3" s="20" t="s">
+      <c r="BF3" s="18" t="s">
         <v>1824</v>
       </c>
-      <c r="BG3" s="20" t="s">
+      <c r="BG3" s="18" t="s">
         <v>1825</v>
       </c>
-      <c r="BH3" s="20" t="s">
+      <c r="BH3" s="18" t="s">
         <v>1826</v>
       </c>
-      <c r="BI3" s="20" t="s">
+      <c r="BI3" s="18" t="s">
         <v>1827</v>
       </c>
-      <c r="BJ3" s="20" t="s">
+      <c r="BJ3" s="18" t="s">
         <v>1828</v>
       </c>
-      <c r="BK3" s="20" t="s">
+      <c r="BK3" s="18" t="s">
         <v>1829</v>
       </c>
-      <c r="BL3" s="20" t="s">
+      <c r="BL3" s="18" t="s">
         <v>1830</v>
       </c>
-      <c r="BM3" s="20" t="s">
+      <c r="BM3" s="18" t="s">
         <v>1831</v>
       </c>
-      <c r="BN3" s="20" t="s">
+      <c r="BN3" s="18" t="s">
         <v>1832</v>
       </c>
-      <c r="BO3" s="20" t="s">
+      <c r="BO3" s="18" t="s">
         <v>1833</v>
       </c>
-      <c r="BP3" s="20" t="s">
+      <c r="BP3" s="18" t="s">
         <v>1834</v>
       </c>
-      <c r="BQ3" s="20" t="s">
+      <c r="BQ3" s="18" t="s">
         <v>1835</v>
       </c>
-      <c r="BR3" s="20" t="s">
+      <c r="BR3" s="18" t="s">
         <v>1836</v>
       </c>
-      <c r="BS3" s="20" t="s">
+      <c r="BS3" s="18" t="s">
         <v>1837</v>
       </c>
-      <c r="BT3" s="20" t="s">
+      <c r="BT3" s="18" t="s">
         <v>1838</v>
       </c>
-      <c r="BU3" s="20" t="s">
+      <c r="BU3" s="18" t="s">
         <v>1839</v>
       </c>
-      <c r="BV3" s="20" t="s">
+      <c r="BV3" s="18" t="s">
         <v>1840</v>
       </c>
-      <c r="BW3" s="20" t="s">
+      <c r="BW3" s="18" t="s">
         <v>1841</v>
       </c>
-      <c r="BX3" s="20" t="s">
+      <c r="BX3" s="18" t="s">
         <v>1842</v>
       </c>
-      <c r="BY3" s="20" t="s">
+      <c r="BY3" s="18" t="s">
         <v>1843</v>
       </c>
-      <c r="BZ3" s="20" t="s">
+      <c r="BZ3" s="18" t="s">
         <v>1844</v>
       </c>
-      <c r="CA3" s="20" t="s">
+      <c r="CA3" s="18" t="s">
         <v>1845</v>
       </c>
-      <c r="CB3" s="20" t="s">
+      <c r="CB3" s="18" t="s">
         <v>1846</v>
       </c>
-      <c r="CC3" s="20" t="s">
+      <c r="CC3" s="18" t="s">
         <v>1847</v>
       </c>
-      <c r="CD3" s="20" t="s">
+      <c r="CD3" s="18" t="s">
         <v>1848</v>
       </c>
-      <c r="CE3" s="20" t="s">
+      <c r="CE3" s="18" t="s">
         <v>1849</v>
       </c>
-      <c r="CF3" s="20" t="s">
+      <c r="CF3" s="18" t="s">
         <v>1850</v>
       </c>
-      <c r="CG3" s="20" t="s">
+      <c r="CG3" s="18" t="s">
         <v>1851</v>
       </c>
-      <c r="CH3" s="20" t="s">
+      <c r="CH3" s="18" t="s">
         <v>1852</v>
       </c>
-      <c r="CI3" s="20" t="s">
+      <c r="CI3" s="18" t="s">
         <v>1853</v>
       </c>
-      <c r="CJ3" s="20" t="s">
+      <c r="CJ3" s="18" t="s">
         <v>1854</v>
       </c>
-      <c r="CK3" s="20" t="s">
+      <c r="CK3" s="18" t="s">
         <v>1855</v>
       </c>
-      <c r="CL3" s="20" t="s">
+      <c r="CL3" s="18" t="s">
         <v>1856</v>
       </c>
-      <c r="CM3" s="20" t="s">
+      <c r="CM3" s="18" t="s">
         <v>1857</v>
       </c>
-      <c r="CN3" s="20" t="s">
+      <c r="CN3" s="18" t="s">
         <v>1858</v>
       </c>
-      <c r="CO3" s="20" t="s">
+      <c r="CO3" s="18" t="s">
         <v>1859</v>
       </c>
-      <c r="CP3" s="20" t="s">
+      <c r="CP3" s="18" t="s">
         <v>1860</v>
       </c>
-      <c r="CQ3" s="20" t="s">
+      <c r="CQ3" s="18" t="s">
         <v>1861</v>
       </c>
-      <c r="CR3" s="20" t="s">
+      <c r="CR3" s="18" t="s">
         <v>1862</v>
       </c>
-      <c r="CS3" s="20" t="s">
+      <c r="CS3" s="18" t="s">
         <v>1863</v>
       </c>
-      <c r="CT3" s="20" t="s">
+      <c r="CT3" s="18" t="s">
         <v>1864</v>
       </c>
-      <c r="CU3" s="20" t="s">
+      <c r="CU3" s="18" t="s">
         <v>1865</v>
       </c>
-      <c r="CV3" s="20" t="s">
+      <c r="CV3" s="18" t="s">
         <v>1866</v>
       </c>
-      <c r="CW3" s="20" t="s">
+      <c r="CW3" s="18" t="s">
         <v>1867</v>
       </c>
-      <c r="CX3" s="20" t="s">
+      <c r="CX3" s="18" t="s">
         <v>1868</v>
       </c>
-      <c r="CY3" s="20" t="s">
+      <c r="CY3" s="18" t="s">
         <v>1869</v>
       </c>
     </row>
     <row r="4" spans="2:103">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>1752</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>1870</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>1871</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>1872</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>1873</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>1874</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>1875</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>1876</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>1877</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>1878</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="18" t="s">
         <v>1879</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="18" t="s">
         <v>1880</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="18" t="s">
         <v>1881</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="18" t="s">
         <v>1882</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="19" t="s">
         <v>1883</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="18" t="s">
         <v>1884</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="18" t="s">
         <v>1885</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="18" t="s">
         <v>1886</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="18" t="s">
         <v>1872</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="18" t="s">
         <v>1887</v>
       </c>
-      <c r="V4" s="20" t="s">
+      <c r="V4" s="18" t="s">
         <v>1888</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="W4" s="18" t="s">
         <v>1889</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="X4" s="18" t="s">
         <v>1890</v>
       </c>
-      <c r="Y4" s="20" t="s">
+      <c r="Y4" s="18" t="s">
         <v>1891</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="Z4" s="18" t="s">
         <v>1892</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="18" t="s">
         <v>1893</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AB4" s="18" t="s">
         <v>1894</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AC4" s="18" t="s">
         <v>1895</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AD4" s="18" t="s">
         <v>1896</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="18" t="s">
         <v>1897</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AF4" s="18" t="s">
         <v>1898</v>
       </c>
-      <c r="AG4" s="20" t="s">
+      <c r="AG4" s="18" t="s">
         <v>1899</v>
       </c>
-      <c r="AH4" s="20" t="s">
+      <c r="AH4" s="18" t="s">
         <v>1900</v>
       </c>
-      <c r="AI4" s="20" t="s">
+      <c r="AI4" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="AJ4" s="20" t="s">
+      <c r="AJ4" s="18" t="s">
         <v>1902</v>
       </c>
-      <c r="AK4" s="20" t="s">
+      <c r="AK4" s="18" t="s">
         <v>1903</v>
       </c>
-      <c r="AL4" s="20" t="s">
+      <c r="AL4" s="18" t="s">
         <v>1904</v>
       </c>
-      <c r="AM4" s="20" t="s">
+      <c r="AM4" s="18" t="s">
         <v>1905</v>
       </c>
-      <c r="AN4" s="20" t="s">
+      <c r="AN4" s="18" t="s">
         <v>1906</v>
       </c>
-      <c r="AO4" s="20" t="s">
+      <c r="AO4" s="18" t="s">
         <v>1907</v>
       </c>
-      <c r="AP4" s="20" t="s">
+      <c r="AP4" s="18" t="s">
         <v>1908</v>
       </c>
-      <c r="AQ4" s="20" t="s">
+      <c r="AQ4" s="18" t="s">
         <v>1909</v>
       </c>
-      <c r="AR4" s="20" t="s">
+      <c r="AR4" s="18" t="s">
         <v>1910</v>
       </c>
-      <c r="AS4" s="20" t="s">
+      <c r="AS4" s="18" t="s">
         <v>1911</v>
       </c>
-      <c r="AT4" s="20" t="s">
+      <c r="AT4" s="18" t="s">
         <v>1912</v>
       </c>
-      <c r="AU4" s="20" t="s">
+      <c r="AU4" s="18" t="s">
         <v>1913</v>
       </c>
-      <c r="AV4" s="20" t="s">
+      <c r="AV4" s="18" t="s">
         <v>1914</v>
       </c>
-      <c r="AW4" s="20" t="s">
+      <c r="AW4" s="18" t="s">
         <v>1915</v>
       </c>
-      <c r="AX4" s="20" t="s">
+      <c r="AX4" s="18" t="s">
         <v>1916</v>
       </c>
-      <c r="AY4" s="20" t="s">
+      <c r="AY4" s="18" t="s">
         <v>1917</v>
       </c>
-      <c r="AZ4" s="20" t="s">
+      <c r="AZ4" s="18" t="s">
         <v>1918</v>
       </c>
-      <c r="BA4" s="20" t="s">
+      <c r="BA4" s="18" t="s">
         <v>1919</v>
       </c>
-      <c r="BB4" s="20" t="s">
+      <c r="BB4" s="18" t="s">
         <v>1920</v>
       </c>
-      <c r="BC4" s="20" t="s">
+      <c r="BC4" s="18" t="s">
         <v>1921</v>
       </c>
-      <c r="BD4" s="20" t="s">
+      <c r="BD4" s="18" t="s">
         <v>1922</v>
       </c>
-      <c r="BE4" s="20" t="s">
+      <c r="BE4" s="18" t="s">
         <v>1923</v>
       </c>
-      <c r="BF4" s="20" t="s">
+      <c r="BF4" s="18" t="s">
         <v>1924</v>
       </c>
-      <c r="BG4" s="20" t="s">
+      <c r="BG4" s="18" t="s">
         <v>1925</v>
       </c>
-      <c r="BH4" s="20" t="s">
+      <c r="BH4" s="18" t="s">
         <v>1926</v>
       </c>
-      <c r="BI4" s="20" t="s">
+      <c r="BI4" s="18" t="s">
         <v>1927</v>
       </c>
-      <c r="BJ4" s="20" t="s">
+      <c r="BJ4" s="18" t="s">
         <v>1928</v>
       </c>
-      <c r="BK4" s="20" t="s">
+      <c r="BK4" s="18" t="s">
         <v>1929</v>
       </c>
-      <c r="BL4" s="20" t="s">
+      <c r="BL4" s="18" t="s">
         <v>1930</v>
       </c>
-      <c r="BM4" s="20" t="s">
+      <c r="BM4" s="18" t="s">
         <v>1931</v>
       </c>
-      <c r="BN4" s="20" t="s">
+      <c r="BN4" s="18" t="s">
         <v>1932</v>
       </c>
-      <c r="BO4" s="20" t="s">
+      <c r="BO4" s="18" t="s">
         <v>1933</v>
       </c>
-      <c r="BP4" s="20" t="s">
+      <c r="BP4" s="18" t="s">
         <v>1934</v>
       </c>
-      <c r="BQ4" s="20" t="s">
+      <c r="BQ4" s="18" t="s">
         <v>1935</v>
       </c>
-      <c r="BR4" s="20" t="s">
+      <c r="BR4" s="18" t="s">
         <v>1936</v>
       </c>
-      <c r="BS4" s="20" t="s">
+      <c r="BS4" s="18" t="s">
         <v>1937</v>
       </c>
-      <c r="BT4" s="20" t="s">
+      <c r="BT4" s="18" t="s">
         <v>1938</v>
       </c>
-      <c r="BU4" s="20" t="s">
+      <c r="BU4" s="18" t="s">
         <v>1939</v>
       </c>
-      <c r="BV4" s="20" t="s">
+      <c r="BV4" s="18" t="s">
         <v>1940</v>
       </c>
-      <c r="BW4" s="20" t="s">
+      <c r="BW4" s="18" t="s">
         <v>1941</v>
       </c>
-      <c r="BX4" s="20" t="s">
+      <c r="BX4" s="18" t="s">
         <v>1942</v>
       </c>
-      <c r="BY4" s="20" t="s">
+      <c r="BY4" s="18" t="s">
         <v>1943</v>
       </c>
-      <c r="BZ4" s="20" t="s">
+      <c r="BZ4" s="18" t="s">
         <v>1944</v>
       </c>
-      <c r="CA4" s="20" t="s">
+      <c r="CA4" s="18" t="s">
         <v>1945</v>
       </c>
-      <c r="CB4" s="20" t="s">
+      <c r="CB4" s="18" t="s">
         <v>1946</v>
       </c>
-      <c r="CC4" s="20" t="s">
+      <c r="CC4" s="18" t="s">
         <v>1947</v>
       </c>
-      <c r="CD4" s="20" t="s">
+      <c r="CD4" s="18" t="s">
         <v>1948</v>
       </c>
-      <c r="CE4" s="20" t="s">
+      <c r="CE4" s="18" t="s">
         <v>1949</v>
       </c>
-      <c r="CF4" s="20" t="s">
+      <c r="CF4" s="18" t="s">
         <v>1950</v>
       </c>
-      <c r="CG4" s="20" t="s">
+      <c r="CG4" s="18" t="s">
         <v>1951</v>
       </c>
-      <c r="CH4" s="20" t="s">
+      <c r="CH4" s="18" t="s">
         <v>1952</v>
       </c>
-      <c r="CI4" s="20" t="s">
+      <c r="CI4" s="18" t="s">
         <v>1953</v>
       </c>
-      <c r="CJ4" s="20" t="s">
+      <c r="CJ4" s="18" t="s">
         <v>1954</v>
       </c>
-      <c r="CK4" s="20" t="s">
+      <c r="CK4" s="18" t="s">
         <v>1955</v>
       </c>
-      <c r="CL4" s="20" t="s">
+      <c r="CL4" s="18" t="s">
         <v>1956</v>
       </c>
-      <c r="CM4" s="20" t="s">
+      <c r="CM4" s="18" t="s">
         <v>1957</v>
       </c>
-      <c r="CN4" s="20" t="s">
+      <c r="CN4" s="18" t="s">
         <v>1958</v>
       </c>
-      <c r="CO4" s="20" t="s">
+      <c r="CO4" s="18" t="s">
         <v>1959</v>
       </c>
-      <c r="CP4" s="20" t="s">
+      <c r="CP4" s="18" t="s">
         <v>1960</v>
       </c>
-      <c r="CQ4" s="20" t="s">
+      <c r="CQ4" s="18" t="s">
         <v>1961</v>
       </c>
-      <c r="CR4" s="20" t="s">
+      <c r="CR4" s="18" t="s">
         <v>1962</v>
       </c>
-      <c r="CS4" s="20" t="s">
+      <c r="CS4" s="18" t="s">
         <v>1963</v>
       </c>
-      <c r="CT4" s="20" t="s">
+      <c r="CT4" s="18" t="s">
         <v>1964</v>
       </c>
-      <c r="CU4" s="20" t="s">
+      <c r="CU4" s="18" t="s">
         <v>1889</v>
       </c>
-      <c r="CV4" s="20" t="s">
+      <c r="CV4" s="18" t="s">
         <v>1888</v>
       </c>
-      <c r="CW4" s="20" t="s">
+      <c r="CW4" s="18" t="s">
         <v>1887</v>
       </c>
-      <c r="CX4" s="20" t="s">
+      <c r="CX4" s="18" t="s">
         <v>1965</v>
       </c>
-      <c r="CY4" s="20" t="s">
+      <c r="CY4" s="18" t="s">
         <v>1966</v>
       </c>
     </row>
     <row r="5" spans="2:103">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>1753</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>5</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>5</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>5</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>5</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>5</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>11</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>11</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>5</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="18">
         <v>11</v>
       </c>
-      <c r="M5" s="20">
-        <v>1</v>
-      </c>
-      <c r="N5" s="20">
+      <c r="M5" s="18">
+        <v>1</v>
+      </c>
+      <c r="N5" s="18">
         <v>11</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="18">
         <v>11</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="19">
         <v>5</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="18">
         <v>5</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="18">
         <v>5</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="18">
         <v>5</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="18">
         <v>5</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="18">
         <v>11</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="18">
         <v>11</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="18">
         <v>11</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="18">
         <v>11</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="18">
         <v>11</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="18">
         <v>11</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AA5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AB5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="20">
+      <c r="AB5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="18">
         <v>5</v>
       </c>
-      <c r="AE5" s="20">
+      <c r="AE5" s="18">
         <v>5</v>
       </c>
-      <c r="AF5" s="20" t="s">
+      <c r="AF5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AG5" s="18">
         <v>5</v>
       </c>
-      <c r="AH5" s="20" t="s">
+      <c r="AH5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AI5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="20">
+      <c r="AI5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="18">
         <v>5</v>
       </c>
-      <c r="AM5" s="20">
+      <c r="AM5" s="18">
         <v>5</v>
       </c>
-      <c r="AN5" s="20">
+      <c r="AN5" s="18">
         <v>5</v>
       </c>
-      <c r="AO5" s="20">
+      <c r="AO5" s="18">
         <v>5</v>
       </c>
-      <c r="AP5" s="20">
+      <c r="AP5" s="18">
         <v>5</v>
       </c>
-      <c r="AQ5" s="20">
+      <c r="AQ5" s="18">
         <v>5</v>
       </c>
-      <c r="AR5" s="20">
+      <c r="AR5" s="18">
         <v>5</v>
       </c>
-      <c r="AS5" s="20">
+      <c r="AS5" s="18">
         <v>5</v>
       </c>
-      <c r="AT5" s="20" t="s">
+      <c r="AT5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AU5" s="20" t="s">
+      <c r="AU5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AV5" s="20" t="s">
+      <c r="AV5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AW5" s="20" t="s">
+      <c r="AW5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AX5" s="20" t="s">
+      <c r="AX5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AY5" s="20" t="s">
+      <c r="AY5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AZ5" s="20" t="s">
+      <c r="AZ5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BA5" s="20" t="s">
+      <c r="BA5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BB5" s="20" t="s">
+      <c r="BB5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BC5" s="20" t="s">
+      <c r="BC5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BD5" s="20" t="s">
+      <c r="BD5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BE5" s="20" t="s">
+      <c r="BE5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BF5" s="20" t="s">
+      <c r="BF5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BG5" s="20" t="s">
+      <c r="BG5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="20">
+      <c r="BH5" s="18">
         <v>5</v>
       </c>
-      <c r="BI5" s="20">
+      <c r="BI5" s="18">
         <v>5</v>
       </c>
-      <c r="BJ5" s="20" t="s">
+      <c r="BJ5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BK5" s="20">
+      <c r="BK5" s="18">
         <v>5</v>
       </c>
-      <c r="BL5" s="20">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="20">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="20">
+      <c r="BL5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="18">
         <v>5</v>
       </c>
-      <c r="BO5" s="20">
+      <c r="BO5" s="18">
         <v>5</v>
       </c>
-      <c r="BP5" s="20">
+      <c r="BP5" s="18">
         <v>5</v>
       </c>
-      <c r="BQ5" s="20">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="20">
+      <c r="BQ5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="18">
         <v>5</v>
       </c>
-      <c r="BS5" s="20">
+      <c r="BS5" s="18">
         <v>5</v>
       </c>
-      <c r="BT5" s="20" t="s">
+      <c r="BT5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="BU5" s="20" t="s">
+      <c r="BU5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BV5" s="20" t="s">
+      <c r="BV5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BW5" s="20" t="s">
+      <c r="BW5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BX5" s="20" t="s">
+      <c r="BX5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BY5" s="20" t="s">
+      <c r="BY5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BZ5" s="20" t="s">
+      <c r="BZ5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CA5" s="20">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="20" t="s">
+      <c r="CA5" s="18">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CC5" s="20" t="s">
+      <c r="CC5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CD5" s="20" t="s">
+      <c r="CD5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CE5" s="20" t="s">
+      <c r="CE5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CF5" s="20" t="s">
+      <c r="CF5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CG5" s="20" t="s">
+      <c r="CG5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CH5" s="20" t="s">
+      <c r="CH5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CI5" s="20" t="s">
+      <c r="CI5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CJ5" s="20" t="s">
+      <c r="CJ5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CK5" s="20" t="s">
+      <c r="CK5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CL5" s="20" t="s">
+      <c r="CL5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CM5" s="20" t="s">
+      <c r="CM5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CN5" s="20" t="s">
+      <c r="CN5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CO5" s="20" t="s">
+      <c r="CO5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CP5" s="20" t="s">
+      <c r="CP5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CQ5" s="20" t="s">
+      <c r="CQ5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CR5" s="20" t="s">
+      <c r="CR5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CS5" s="20" t="s">
+      <c r="CS5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="CT5" s="20">
+      <c r="CT5" s="18">
         <v>11</v>
       </c>
-      <c r="CU5" s="20">
+      <c r="CU5" s="18">
         <v>5</v>
       </c>
-      <c r="CV5" s="20">
+      <c r="CV5" s="18">
         <v>5</v>
       </c>
-      <c r="CW5" s="20">
+      <c r="CW5" s="18">
         <v>5</v>
       </c>
-      <c r="CX5" s="20">
+      <c r="CX5" s="18">
         <v>11</v>
       </c>
-      <c r="CY5" s="20">
+      <c r="CY5" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:103">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>1754</v>
       </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
         <v>19</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>19</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>10</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>10</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>4</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>60</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <v>48</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <v>8</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <v>196</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <v>27</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="18">
         <v>30</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <v>20</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="19">
         <v>15</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="18">
         <v>19</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="18">
         <v>50</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="18">
         <v>19</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="18">
         <v>19</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U6" s="18">
         <v>50</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="18">
         <v>50</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="18">
         <v>50</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="18">
         <v>50</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="18">
         <v>50</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z6" s="18">
         <v>50</v>
       </c>
-      <c r="AA6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="20">
+      <c r="AA6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="18">
         <v>14</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="18">
         <v>14</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD6" s="18">
         <v>14</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AE6" s="18">
         <v>14</v>
       </c>
-      <c r="AF6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="20">
+      <c r="AF6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="18">
         <v>8</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AH6" s="18">
         <v>2</v>
       </c>
-      <c r="AI6" s="20">
+      <c r="AI6" s="18">
         <v>64</v>
       </c>
-      <c r="AJ6" s="20">
+      <c r="AJ6" s="18">
         <v>64</v>
       </c>
-      <c r="AK6" s="20">
+      <c r="AK6" s="18">
         <v>64</v>
       </c>
-      <c r="AL6" s="20">
+      <c r="AL6" s="18">
         <v>92</v>
       </c>
-      <c r="AM6" s="20">
+      <c r="AM6" s="18">
         <v>92</v>
       </c>
-      <c r="AN6" s="20">
+      <c r="AN6" s="18">
         <v>84</v>
       </c>
-      <c r="AO6" s="20">
+      <c r="AO6" s="18">
         <v>84</v>
       </c>
-      <c r="AP6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="20">
+      <c r="AP6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="18">
         <v>13</v>
       </c>
-      <c r="AR6" s="20">
+      <c r="AR6" s="18">
         <v>13</v>
       </c>
-      <c r="AS6" s="20">
+      <c r="AS6" s="18">
         <v>102</v>
       </c>
-      <c r="AT6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="20">
+      <c r="AT6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="18">
         <v>2</v>
       </c>
-      <c r="AW6" s="20">
+      <c r="AW6" s="18">
         <v>2</v>
       </c>
-      <c r="AX6" s="20">
+      <c r="AX6" s="18">
         <v>2</v>
       </c>
-      <c r="AY6" s="20">
+      <c r="AY6" s="18">
         <v>2</v>
       </c>
-      <c r="AZ6" s="20">
+      <c r="AZ6" s="18">
         <v>2</v>
       </c>
-      <c r="BA6" s="20">
+      <c r="BA6" s="18">
         <v>2</v>
       </c>
-      <c r="BB6" s="20">
+      <c r="BB6" s="18">
         <v>2</v>
       </c>
-      <c r="BC6" s="20">
+      <c r="BC6" s="18">
         <v>2</v>
       </c>
-      <c r="BD6" s="20">
+      <c r="BD6" s="18">
         <v>2</v>
       </c>
-      <c r="BE6" s="20">
+      <c r="BE6" s="18">
         <v>2</v>
       </c>
-      <c r="BF6" s="20">
+      <c r="BF6" s="18">
         <v>2</v>
       </c>
-      <c r="BG6" s="20">
+      <c r="BG6" s="18">
         <v>100</v>
       </c>
-      <c r="BH6" s="20" t="s">
+      <c r="BH6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BI6" s="20">
+      <c r="BI6" s="18">
         <v>10</v>
       </c>
-      <c r="BJ6" s="20">
+      <c r="BJ6" s="18">
         <v>2</v>
       </c>
-      <c r="BK6" s="20" t="s">
+      <c r="BK6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BL6" s="20">
+      <c r="BL6" s="18">
         <v>20</v>
       </c>
-      <c r="BM6" s="20">
+      <c r="BM6" s="18">
         <v>30</v>
       </c>
-      <c r="BN6" s="20">
+      <c r="BN6" s="18">
         <v>48</v>
       </c>
-      <c r="BO6" s="20">
+      <c r="BO6" s="18">
         <v>13</v>
       </c>
-      <c r="BP6" s="20">
+      <c r="BP6" s="18">
         <v>6</v>
       </c>
-      <c r="BQ6" s="20">
+      <c r="BQ6" s="18">
         <v>10</v>
       </c>
-      <c r="BR6" s="20">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="20">
+      <c r="BR6" s="18">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="18">
         <v>6</v>
       </c>
-      <c r="BT6" s="20" t="s">
+      <c r="BT6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="BU6" s="20">
+      <c r="BU6" s="18">
         <v>3</v>
       </c>
-      <c r="BV6" s="20">
+      <c r="BV6" s="18">
         <v>3</v>
       </c>
-      <c r="BW6" s="20">
+      <c r="BW6" s="18">
         <v>3</v>
       </c>
-      <c r="BX6" s="20">
+      <c r="BX6" s="18">
         <v>3</v>
       </c>
-      <c r="BY6" s="20">
+      <c r="BY6" s="18">
         <v>3</v>
       </c>
-      <c r="BZ6" s="20">
+      <c r="BZ6" s="18">
         <v>4</v>
       </c>
-      <c r="CA6" s="20">
+      <c r="CA6" s="18">
         <v>20</v>
       </c>
-      <c r="CB6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CC6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CD6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CE6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CF6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CG6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CH6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CI6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CJ6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CK6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CL6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CM6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CN6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CO6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CP6" s="20">
-        <v>1</v>
-      </c>
-      <c r="CQ6" s="20">
+      <c r="CB6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="18">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="18">
         <v>2</v>
       </c>
-      <c r="CR6" s="20">
+      <c r="CR6" s="18">
         <v>2</v>
       </c>
-      <c r="CS6" s="20">
+      <c r="CS6" s="18">
         <v>4</v>
       </c>
-      <c r="CT6" s="20">
+      <c r="CT6" s="18">
         <v>18</v>
       </c>
-      <c r="CU6" s="20">
+      <c r="CU6" s="18">
         <v>150</v>
       </c>
-      <c r="CV6" s="20">
+      <c r="CV6" s="18">
         <v>50</v>
       </c>
-      <c r="CW6" s="20">
+      <c r="CW6" s="18">
         <v>50</v>
       </c>
-      <c r="CX6" s="20">
+      <c r="CX6" s="18">
         <v>50</v>
       </c>
-      <c r="CY6" s="20">
+      <c r="CY6" s="18">
         <v>50</v>
       </c>
     </row>
@@ -31197,12 +31232,12 @@
       <c r="L7" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="2" t="s">
         <v>1974</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="23" t="str">
+      <c r="P7" s="21" t="str">
         <f>"20000"&amp;F7</f>
         <v>200000000000001</v>
       </c>
@@ -31218,7 +31253,7 @@
       <c r="T7" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="U7" s="24"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="s">
@@ -31282,7 +31317,7 @@
       <c r="AR7" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="AS7" s="24" t="s">
+      <c r="AS7" s="22" t="s">
         <v>2032</v>
       </c>
       <c r="AT7" s="2" t="s">
@@ -31450,7 +31485,7 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="23" t="str">
+      <c r="P8" s="21" t="str">
         <f t="shared" ref="P8:P26" si="0">"20000"&amp;F8</f>
         <v>200000000000002</v>
       </c>
@@ -31504,7 +31539,7 @@
       <c r="AR8" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="AS8" s="24" t="s">
+      <c r="AS8" s="22" t="s">
         <v>2032</v>
       </c>
       <c r="AT8" s="2" t="s">
@@ -31646,7 +31681,7 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="23" t="str">
+      <c r="P9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000003</v>
       </c>
@@ -31708,7 +31743,7 @@
       <c r="AR9" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="AS9" s="24" t="s">
+      <c r="AS9" s="22" t="s">
         <v>2032</v>
       </c>
       <c r="AT9" s="2" t="s">
@@ -31848,7 +31883,7 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="23" t="str">
+      <c r="P10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000004</v>
       </c>
@@ -31994,7 +32029,7 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="23" t="str">
+      <c r="P11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000005</v>
       </c>
@@ -32135,10 +32170,10 @@
       <c r="L12" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P12" s="23" t="str">
+      <c r="P12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000006</v>
       </c>
@@ -32154,7 +32189,7 @@
       <c r="T12" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="U12" s="24"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2" t="s">
@@ -32199,7 +32234,7 @@
       <c r="M13" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P13" s="23" t="str">
+      <c r="P13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000007</v>
       </c>
@@ -32260,7 +32295,7 @@
       <c r="M14" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P14" s="23" t="str">
+      <c r="P14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000008</v>
       </c>
@@ -32321,7 +32356,7 @@
       <c r="M15" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P15" s="23" t="str">
+      <c r="P15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000009</v>
       </c>
@@ -32382,7 +32417,7 @@
       <c r="M16" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P16" s="23" t="str">
+      <c r="P16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000010</v>
       </c>
@@ -32440,10 +32475,10 @@
       <c r="L17" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P17" s="23" t="str">
+      <c r="P17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000011</v>
       </c>
@@ -32459,7 +32494,7 @@
       <c r="T17" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="U17" s="24"/>
+      <c r="U17" s="22"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2" t="s">
@@ -32504,7 +32539,7 @@
       <c r="M18" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P18" s="23" t="str">
+      <c r="P18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000012</v>
       </c>
@@ -32565,7 +32600,7 @@
       <c r="M19" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P19" s="23" t="str">
+      <c r="P19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000013</v>
       </c>
@@ -32626,7 +32661,7 @@
       <c r="M20" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P20" s="23" t="str">
+      <c r="P20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000014</v>
       </c>
@@ -32687,7 +32722,7 @@
       <c r="M21" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P21" s="23" t="str">
+      <c r="P21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000015</v>
       </c>
@@ -32745,10 +32780,10 @@
       <c r="L22" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P22" s="23" t="str">
+      <c r="P22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000016</v>
       </c>
@@ -32764,7 +32799,7 @@
       <c r="T22" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="U22" s="24"/>
+      <c r="U22" s="22"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2" t="s">
@@ -32809,7 +32844,7 @@
       <c r="M23" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P23" s="23" t="str">
+      <c r="P23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000017</v>
       </c>
@@ -32870,7 +32905,7 @@
       <c r="M24" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P24" s="23" t="str">
+      <c r="P24" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000018</v>
       </c>
@@ -32931,7 +32966,7 @@
       <c r="M25" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P25" s="23" t="str">
+      <c r="P25" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000019</v>
       </c>
@@ -32992,7 +33027,7 @@
       <c r="M26" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="P26" s="23" t="str">
+      <c r="P26" s="21" t="str">
         <f t="shared" si="0"/>
         <v>200000000000020</v>
       </c>
@@ -33035,8 +33070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5747087F-EDA4-4D2C-ABC7-4D2855822BCE}">
   <dimension ref="B2:DF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DC1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:DF10"/>
+    <sheetView topLeftCell="DC1" workbookViewId="0">
+      <selection activeCell="DE20" sqref="DE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
